--- a/contacts/layering_data/foiaHub-usaContacts-matches.xlsx
+++ b/contacts/layering_data/foiaHub-usaContacts-matches.xlsx
@@ -7,34 +7,13 @@
     <sheet sheetId="2" name="Missing Foia Contacts" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" name="_xlnm._FilterDatabase" localSheetId="1">'Missing Foia Contacts'!$H$1:$H$988</definedName>
+    <definedName hidden="1" name="_xlnm._FilterDatabase" localSheetId="1">'Missing Foia Contacts'!$H$1:$H$20</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="C161" authorId="0">
-      <text>
-        <t xml:space="preserve">USPS ?</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <t xml:space="preserve">Checks if col "C" has an acronym, elif checks if col "E" as it, else returns ""
-	-Gabriel Ramirez - XI</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -49,6 +28,27 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <t xml:space="preserve">Checks if col "C" has an acronym, elif checks if col "E" as it, else returns ""
+	-Gabriel Ramirez - XI</t>
+      </text>
+    </comment>
+    <comment ref="C161" authorId="0">
+      <text>
+        <t xml:space="preserve">USPS ?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
@@ -85,15 +85,54 @@
     <t>Office of Scientific and Technical Information</t>
   </si>
   <si>
+    <t>fh_name</t>
+  </si>
+  <si>
+    <t>fh_url</t>
+  </si>
+  <si>
+    <t>usa_name</t>
+  </si>
+  <si>
+    <t>usa_url</t>
+  </si>
+  <si>
+    <t>usa_id</t>
+  </si>
+  <si>
+    <t>usagov-source</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>Office of the Secretary and Joint Staff</t>
+  </si>
+  <si>
+    <t>http://www.dod.gov/pubs/foi/</t>
+  </si>
+  <si>
     <t>Office of Scientific and Technical Information (OSTI)</t>
   </si>
   <si>
     <t>http://www.osti.gov/</t>
   </si>
   <si>
+    <t>Office of the Secretary and Joint Staff</t>
+  </si>
+  <si>
+    <t>http://www.dod.mil/pubs/foi/</t>
+  </si>
+  <si>
     <t>http://www.usa.gov/directory/federal/office-of-scientific-and-technical-information.shtml</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -103,6 +142,9 @@
     <t>http://www.atf.gov/content/contact-us/FOIA</t>
   </si>
   <si>
+    <t>Office of the Attorney General</t>
+  </si>
+  <si>
     <t>Bureau of Alcohol, Tobacco, Firearms, and Explosives (ATF)</t>
   </si>
   <si>
@@ -112,6 +154,9 @@
     <t>http://www.usa.gov/directory/federal/alcohol-tobacco-firearms-and-explosives-bureau.shtml</t>
   </si>
   <si>
+    <t>http://www.justice.gov/ag/foia.htm</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -127,6 +172,12 @@
     <t>http://www.fws.gov/</t>
   </si>
   <si>
+    <t>Office of the Attorney General </t>
+  </si>
+  <si>
+    <t>http://www.justice.gov/ag</t>
+  </si>
+  <si>
     <t>http://www.usa.gov/directory/federal/fish-and-wildlife-service.shtml</t>
   </si>
   <si>
@@ -145,9 +196,21 @@
     <t>http://www.ssa.gov/</t>
   </si>
   <si>
+    <t>Federal Open Market Committee</t>
+  </si>
+  <si>
     <t>http://www.usa.gov/directory/federal/social-security-administration.shtml</t>
   </si>
   <si>
+    <t>http://www.federalreserve.gov/foia/fomc/about_fomcfoia.htm</t>
+  </si>
+  <si>
+    <t>Federal Open Market Committee (FOMC)</t>
+  </si>
+  <si>
+    <t>http://www.federalreserve.gov/monetarypolicy/fomc.htm</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -166,7 +229,31 @@
     <t>http://www.usa.gov/directory/federal/defense-nuclear-facilities-safety-board.shtml</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Administration for Community Living</t>
+  </si>
+  <si>
+    <t>http://www.aoa.gov/AoARoot/Site_Utilities/FOIA/index.aspx</t>
+  </si>
+  <si>
+    <t>Administration for Community Living (ACL)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>http://www.acl.gov/</t>
+  </si>
+  <si>
+    <t>Jet Propulsion Laboratory</t>
+  </si>
+  <si>
+    <t>http://nmo.nasa.gov/cfm_nasa/foia.cfm</t>
+  </si>
+  <si>
+    <t>Jet Propulsion Laboratory (JPL) </t>
+  </si>
+  <si>
+    <t>http://www.jpl.nasa.gov/</t>
   </si>
   <si>
     <t>United States Copyright Office</t>
@@ -175,15 +262,51 @@
     <t>http://www.copyright.gov/foia/</t>
   </si>
   <si>
+    <t>Office of Navajo and Hopi Indian Relocation</t>
+  </si>
+  <si>
+    <t>http://onhir.gov/</t>
+  </si>
+  <si>
+    <t>Office of Navajo and Hopi Indian Relocation (ONHIR)</t>
+  </si>
+  <si>
+    <t>http://onhir.gov/</t>
+  </si>
+  <si>
+    <t>Recovery Accountability and Transparency Board</t>
+  </si>
+  <si>
+    <t>http://www.recovery.gov/Pages/foia.aspx</t>
+  </si>
+  <si>
+    <t>Recovery Accountability and Transparency Board (RATB)</t>
+  </si>
+  <si>
+    <t>http://www.recovery.gov/</t>
+  </si>
+  <si>
     <t>Copyright Office</t>
   </si>
   <si>
     <t>http://www.copyright.gov/</t>
   </si>
   <si>
+    <t>Special Inspector General for Afghanistan Reconstruction</t>
+  </si>
+  <si>
+    <t>http://www.sigar.mil/foia.asp</t>
+  </si>
+  <si>
     <t>http://www.usa.gov/directory/federal/copyright-office.shtml</t>
   </si>
   <si>
+    <t>Special Inspector General for Afghanistan Reconstruction (SIGAR)</t>
+  </si>
+  <si>
+    <t>http://www.sigar.mil/</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
@@ -205,6 +328,24 @@
     <t>http://www.usa.gov/directory/federal/federal-energy-regulatory-commission.shtml</t>
   </si>
   <si>
+    <t>Financial Crimes Enforcement Network</t>
+  </si>
+  <si>
+    <t>http://www.fincen.gov/foia/</t>
+  </si>
+  <si>
+    <t>Financial Crimes Enforcement Network (FINCEN)</t>
+  </si>
+  <si>
+    <t>http://www.fincen.gov/</t>
+  </si>
+  <si>
+    <t>United States International Boundary and Water Commission</t>
+  </si>
+  <si>
+    <t>http://www.ibwc.gov/Organization/FOIA.html</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -214,6 +355,24 @@
     <t>http://www.doi.gov/foia/foia-request-form.cfm</t>
   </si>
   <si>
+    <t>United States International Boundary and Water Commission (IBWC)</t>
+  </si>
+  <si>
+    <t>http://www.ibwc.gov/</t>
+  </si>
+  <si>
+    <t>Postal Inspection Service</t>
+  </si>
+  <si>
+    <t>http://www.usps.com/foia/welcome.htm</t>
+  </si>
+  <si>
+    <t>Postal Inspection Service</t>
+  </si>
+  <si>
+    <t>http://www.usps.com/</t>
+  </si>
+  <si>
     <t>Department of the Interior (DOI)</t>
   </si>
   <si>
@@ -2947,170 +3106,35 @@
     <t>USTR</t>
   </si>
   <si>
-    <t>fh_name</t>
-  </si>
-  <si>
-    <t>fh_url</t>
-  </si>
-  <si>
-    <t>usa_name</t>
-  </si>
-  <si>
-    <t>usa_url</t>
-  </si>
-  <si>
-    <t>usa_id</t>
-  </si>
-  <si>
-    <t>usagov-source</t>
-  </si>
-  <si>
-    <t>acronym</t>
-  </si>
-  <si>
-    <t>Office of the Secretary and Joint Staff</t>
-  </si>
-  <si>
-    <t>http://www.dod.gov/pubs/foi/</t>
-  </si>
-  <si>
-    <t>Office of the Secretary and Joint Staff</t>
-  </si>
-  <si>
-    <t>http://www.dod.mil/pubs/foi/</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Office of the Attorney General</t>
-  </si>
-  <si>
-    <t>http://www.justice.gov/ag/foia.htm</t>
-  </si>
-  <si>
-    <t>Office of the Attorney General </t>
-  </si>
-  <si>
-    <t>http://www.justice.gov/ag</t>
-  </si>
-  <si>
-    <t>Federal Open Market Committee</t>
-  </si>
-  <si>
-    <t>http://www.federalreserve.gov/foia/fomc/about_fomcfoia.htm</t>
-  </si>
-  <si>
-    <t>Federal Open Market Committee (FOMC)</t>
-  </si>
-  <si>
-    <t>http://www.federalreserve.gov/monetarypolicy/fomc.htm</t>
-  </si>
-  <si>
-    <t>Administration for Community Living</t>
-  </si>
-  <si>
-    <t>http://www.aoa.gov/AoARoot/Site_Utilities/FOIA/index.aspx</t>
-  </si>
-  <si>
-    <t>Administration for Community Living (ACL)</t>
-  </si>
-  <si>
-    <t>http://www.acl.gov/</t>
-  </si>
-  <si>
-    <t>Jet Propulsion Laboratory</t>
-  </si>
-  <si>
-    <t>http://nmo.nasa.gov/cfm_nasa/foia.cfm</t>
-  </si>
-  <si>
-    <t>Jet Propulsion Laboratory (JPL) </t>
-  </si>
-  <si>
-    <t>http://www.jpl.nasa.gov/</t>
-  </si>
-  <si>
-    <t>Office of Navajo and Hopi Indian Relocation</t>
-  </si>
-  <si>
-    <t>http://onhir.gov/</t>
-  </si>
-  <si>
-    <t>Office of Navajo and Hopi Indian Relocation (ONHIR)</t>
-  </si>
-  <si>
-    <t>http://onhir.gov/</t>
-  </si>
-  <si>
-    <t>Recovery Accountability and Transparency Board</t>
-  </si>
-  <si>
-    <t>http://www.recovery.gov/Pages/foia.aspx</t>
-  </si>
-  <si>
-    <t>Recovery Accountability and Transparency Board (RATB)</t>
-  </si>
-  <si>
-    <t>http://www.recovery.gov/</t>
-  </si>
-  <si>
-    <t>Special Inspector General for Afghanistan Reconstruction</t>
-  </si>
-  <si>
-    <t>http://www.sigar.mil/foia.asp</t>
-  </si>
-  <si>
-    <t>Special Inspector General for Afghanistan Reconstruction (SIGAR)</t>
-  </si>
-  <si>
-    <t>http://www.sigar.mil/</t>
-  </si>
-  <si>
-    <t>Financial Crimes Enforcement Network</t>
-  </si>
-  <si>
-    <t>http://www.fincen.gov/foia/</t>
-  </si>
-  <si>
-    <t>Financial Crimes Enforcement Network (FINCEN)</t>
-  </si>
-  <si>
-    <t>http://www.fincen.gov/</t>
-  </si>
-  <si>
-    <t>United States International Boundary and Water Commission</t>
-  </si>
-  <si>
-    <t>http://www.ibwc.gov/Organization/FOIA.html</t>
-  </si>
-  <si>
-    <t>United States International Boundary and Water Commission (IBWC)</t>
-  </si>
-  <si>
-    <t>http://www.ibwc.gov/</t>
-  </si>
-  <si>
-    <t>Postal Inspection Service</t>
-  </si>
-  <si>
-    <t>http://www.usps.com/foia/welcome.htm</t>
-  </si>
-  <si>
-    <t>Postal Inspection Service</t>
-  </si>
-  <si>
-    <t>http://www.usps.com/</t>
+    <t>Department of the Air Force - Headquarters/ICIO (FOIA)</t>
+  </si>
+  <si>
+    <t>Department of the Army - Freedom of Information and Privacy Office</t>
+  </si>
+  <si>
+    <t>Department of the Navy - Main Office</t>
+  </si>
+  <si>
+    <t>Internal Revenue Service - Headquarters Office</t>
+  </si>
+  <si>
+    <t>Jobs Corps</t>
+  </si>
+  <si>
+    <t>Marine Corps - FOIA Program Office (ARSF)</t>
+  </si>
+  <si>
+    <t>National Geospatial-Intelligence Agency</t>
+  </si>
+  <si>
+    <t>Transportation Security Administration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -3142,6 +3166,11 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF545454"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF1155CC"/>
     </font>
     <font>
       <u/>
@@ -3218,46 +3247,34 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2"/>
+    <xf applyBorder="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1"/>
+    <xf applyBorder="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
+    <xf applyBorder="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4" applyFill="1"/>
+    <xf applyBorder="1" fillId="3" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="5"/>
+    <xf applyBorder="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1"/>
+    <xf applyBorder="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6"/>
+    <xf applyBorder="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="8" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="9">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="10">
+      <alignment horizontal="left"/>
+    </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4" applyFill="1">
-      <alignment/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="5">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
-      <alignment/>
-    </xf>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="8" applyFill="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="9">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="10">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="11">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
@@ -3272,11 +3289,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -3285,7 +3302,303 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" customWidth="1" max="2" width="14.43"/>
+    <col min="3" customWidth="1" max="3" width="39.86"/>
+    <col min="4" customWidth="1" max="8" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" r="1" ht="15.75">
+      <c t="s" s="1" r="A1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>14</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>17</v>
+      </c>
+      <c s="1" r="H1"/>
+    </row>
+    <row customHeight="1" r="2" ht="15.75">
+      <c t="s" s="1" r="A2">
+        <v>18</v>
+      </c>
+      <c t="s" s="3" r="B2">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="C2">
+        <v>22</v>
+      </c>
+      <c t="s" s="3" r="D2">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="E2">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="F2">
+        <v>26</v>
+      </c>
+      <c t="str" s="2" r="G2">
+        <f ref="G2:G12" t="shared" si="1">iferror(iferror(REGEXEXTRACT(A2,"\((\w+)\)"),REGEXEXTRACT(C2,"\((\w+)\)")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" r="3" ht="15.75">
+      <c t="s" s="1" r="A3">
+        <v>30</v>
+      </c>
+      <c t="s" s="3" r="B3">
+        <v>34</v>
+      </c>
+      <c t="s" s="1" r="C3">
+        <v>40</v>
+      </c>
+      <c t="s" s="3" r="D3">
+        <v>41</v>
+      </c>
+      <c t="str" s="2" r="G3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" r="4" ht="15.75">
+      <c t="s" s="1" r="A4">
+        <v>48</v>
+      </c>
+      <c t="s" s="3" r="B4">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="C4">
+        <v>51</v>
+      </c>
+      <c t="s" s="3" r="D4">
+        <v>52</v>
+      </c>
+      <c t="str" s="2" r="G4">
+        <f t="shared" si="1"/>
+        <v>FOMC</v>
+      </c>
+    </row>
+    <row customHeight="1" r="5" ht="15.75">
+      <c t="s" s="1" r="A5">
+        <v>59</v>
+      </c>
+      <c t="s" s="3" r="B5">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="C5">
+        <v>61</v>
+      </c>
+      <c t="s" s="3" r="D5">
+        <v>63</v>
+      </c>
+      <c t="str" s="2" r="G5">
+        <f t="shared" si="1"/>
+        <v>ACL</v>
+      </c>
+    </row>
+    <row customHeight="1" r="6" ht="15.75">
+      <c t="s" s="1" r="A6">
+        <v>64</v>
+      </c>
+      <c t="s" s="3" r="B6">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="C6">
+        <v>66</v>
+      </c>
+      <c t="s" s="3" r="D6">
+        <v>67</v>
+      </c>
+      <c t="str" s="2" r="G6">
+        <f t="shared" si="1"/>
+        <v>JPL</v>
+      </c>
+    </row>
+    <row customHeight="1" r="7" ht="15.75">
+      <c t="s" s="1" r="A7">
+        <v>70</v>
+      </c>
+      <c t="s" s="3" r="B7">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="C7">
+        <v>72</v>
+      </c>
+      <c t="s" s="3" r="D7">
+        <v>73</v>
+      </c>
+      <c t="str" s="2" r="G7">
+        <f t="shared" si="1"/>
+        <v>ONHIR</v>
+      </c>
+    </row>
+    <row customHeight="1" r="8" ht="15.75">
+      <c t="s" s="1" r="A8">
+        <v>74</v>
+      </c>
+      <c t="s" s="3" r="B8">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="C8">
+        <v>76</v>
+      </c>
+      <c t="s" s="3" r="D8">
+        <v>77</v>
+      </c>
+      <c t="str" s="2" r="G8">
+        <f t="shared" si="1"/>
+        <v>RATB</v>
+      </c>
+    </row>
+    <row customHeight="1" r="9" ht="15.75">
+      <c t="s" s="1" r="A9">
+        <v>80</v>
+      </c>
+      <c t="s" s="3" r="B9">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="C9">
+        <v>83</v>
+      </c>
+      <c t="s" s="3" r="D9">
+        <v>84</v>
+      </c>
+      <c t="str" s="2" r="G9">
+        <f t="shared" si="1"/>
+        <v>SIGAR</v>
+      </c>
+    </row>
+    <row customHeight="1" r="10" ht="15.75">
+      <c t="s" s="1" r="A10">
+        <v>92</v>
+      </c>
+      <c t="s" s="3" r="B10">
+        <v>93</v>
+      </c>
+      <c t="s" s="1" r="C10">
+        <v>94</v>
+      </c>
+      <c t="s" s="3" r="D10">
+        <v>95</v>
+      </c>
+      <c t="str" s="2" r="G10">
+        <f t="shared" si="1"/>
+        <v>FINCEN</v>
+      </c>
+    </row>
+    <row customHeight="1" r="11" ht="15.75">
+      <c t="s" s="1" r="A11">
+        <v>96</v>
+      </c>
+      <c t="s" s="3" r="B11">
+        <v>97</v>
+      </c>
+      <c t="s" s="1" r="C11">
+        <v>101</v>
+      </c>
+      <c t="s" s="3" r="D11">
+        <v>102</v>
+      </c>
+      <c t="str" s="2" r="G11">
+        <f t="shared" si="1"/>
+        <v>IBWC</v>
+      </c>
+    </row>
+    <row customHeight="1" r="12" ht="15.75">
+      <c t="s" s="1" r="A12">
+        <v>103</v>
+      </c>
+      <c t="s" s="3" r="B12">
+        <v>104</v>
+      </c>
+      <c t="s" s="1" r="C12">
+        <v>105</v>
+      </c>
+      <c t="s" s="3" r="D12">
+        <v>106</v>
+      </c>
+      <c s="1" r="E12"/>
+      <c t="str" s="2" r="G12">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" r="13" ht="15.75">
+      <c s="2" r="C13"/>
+    </row>
+    <row customHeight="1" r="14" ht="15.75">
+      <c s="2" r="C14"/>
+    </row>
+    <row customHeight="1" r="15" ht="15.75">
+      <c s="2" r="C15"/>
+    </row>
+    <row customHeight="1" r="16" ht="15.75">
+      <c s="2" r="C16"/>
+    </row>
+    <row customHeight="1" r="17" ht="15.75">
+      <c s="2" r="C17"/>
+    </row>
+    <row customHeight="1" r="18" ht="15.75">
+      <c s="2" r="C18"/>
+    </row>
+    <row customHeight="1" r="19" ht="15.75">
+      <c s="2" r="C19"/>
+    </row>
+    <row customHeight="1" r="20" ht="15.75">
+      <c s="2" r="C20"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="$H$1:$H$20"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="D4" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="D5" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="D6" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="D7" r:id="rId13"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="D8" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="D9" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="D10" r:id="rId19"/>
+    <hyperlink ref="B11" r:id="rId20"/>
+    <hyperlink ref="D11" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
+    <hyperlink ref="D12" r:id="rId23"/>
+  </hyperlinks>
+  <drawing r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
   <cols>
     <col min="1" customWidth="1" max="1" width="6.0"/>
     <col min="2" customWidth="1" max="2" width="5.0"/>
@@ -3293,11 +3606,12 @@
     <col min="4" customWidth="1" max="4" width="38.29"/>
     <col min="5" customWidth="1" max="5" width="34.43"/>
     <col min="6" customWidth="1" max="6" width="34.29"/>
+    <col min="7" customWidth="1" max="7" width="14.43"/>
     <col min="8" customWidth="1" max="8" width="72.71"/>
     <col min="9" customWidth="1" max="9" width="10.86"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" r="1" ht="15.75">
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
@@ -3326,7 +3640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="1" r="2" ht="15.75">
       <c t="s" s="1" r="A2">
         <v>9</v>
       </c>
@@ -3336,4734 +3650,4879 @@
       <c t="s" s="1" r="C2">
         <v>10</v>
       </c>
+      <c s="2" r="D2"/>
       <c t="s" s="1" r="E2">
-        <v>11</v>
-      </c>
-      <c t="s" s="2" r="F2">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c t="s" s="3" r="F2">
+        <v>21</v>
       </c>
       <c s="1" r="G2">
         <v>49592.0</v>
       </c>
-      <c t="s" s="2" r="H2">
-        <v>13</v>
-      </c>
-      <c t="str" r="I2">
+      <c t="s" s="3" r="H2">
+        <v>24</v>
+      </c>
+      <c t="str" s="2" r="I2">
         <f ref="I2:I6" t="shared" si="1">iferror(iferror(REGEXEXTRACT(C2,"\((\w+)\)"),REGEXEXTRACT(E2,"\((\w+)\)")),"")</f>
         <v>OSTI</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="1" r="3" ht="15.75">
       <c t="s" s="1" r="A3">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c s="1" r="B3">
         <v>49.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>15</v>
-      </c>
-      <c t="s" s="2" r="D3">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c t="s" s="3" r="D3">
+        <v>29</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
-      </c>
-      <c t="s" s="2" r="F3">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c t="s" s="3" r="F3">
+        <v>32</v>
       </c>
       <c s="1" r="G3">
         <v>49081.0</v>
       </c>
-      <c t="s" s="2" r="H3">
-        <v>19</v>
-      </c>
-      <c t="str" r="I3">
+      <c t="s" s="3" r="H3">
+        <v>33</v>
+      </c>
+      <c t="str" s="2" r="I3">
         <f t="shared" si="1"/>
         <v>ATF</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="1" r="4" ht="15.75">
       <c t="s" s="1" r="A4">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c s="1" r="B4">
         <v>45.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>21</v>
-      </c>
-      <c t="s" s="2" r="D4">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c t="s" s="3" r="D4">
+        <v>37</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>23</v>
-      </c>
-      <c t="s" s="2" r="F4">
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c t="s" s="3" r="F4">
+        <v>39</v>
       </c>
       <c s="1" r="G4">
         <v>48057.0</v>
       </c>
-      <c t="s" s="2" r="H4">
-        <v>25</v>
-      </c>
-      <c t="str" r="I4">
+      <c t="s" s="3" r="H4">
+        <v>42</v>
+      </c>
+      <c t="str" s="2" r="I4">
         <f t="shared" si="1"/>
         <v>FWS</v>
       </c>
     </row>
-    <row r="5">
+    <row customHeight="1" r="5" ht="15.75">
       <c t="s" s="1" r="A5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c s="1" r="B5">
         <v>125.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>27</v>
-      </c>
-      <c t="s" s="2" r="D5">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c t="s" s="3" r="D5">
+        <v>45</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>29</v>
-      </c>
-      <c t="s" s="2" r="F5">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c t="s" s="3" r="F5">
+        <v>47</v>
       </c>
       <c s="1" r="G5">
         <v>49057.0</v>
       </c>
-      <c t="s" s="2" r="H5">
-        <v>31</v>
-      </c>
-      <c t="str" r="I5">
+      <c t="s" s="3" r="H5">
+        <v>49</v>
+      </c>
+      <c t="str" s="2" r="I5">
         <f t="shared" si="1"/>
         <v>SSA</v>
       </c>
     </row>
-    <row r="6">
+    <row customHeight="1" r="6" ht="15.75">
       <c t="s" s="1" r="A6">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c s="1" r="B6">
         <v>23.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>33</v>
-      </c>
-      <c t="s" s="2" r="D6">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c t="s" s="3" r="D6">
+        <v>55</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>35</v>
-      </c>
-      <c t="s" s="2" r="F6">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c t="s" s="3" r="F6">
+        <v>57</v>
       </c>
       <c s="1" r="G6">
         <v>52601.0</v>
       </c>
-      <c t="s" s="2" r="H6">
-        <v>37</v>
-      </c>
-      <c t="str" r="I6">
+      <c t="s" s="3" r="H6">
+        <v>58</v>
+      </c>
+      <c t="str" s="2" r="I6">
         <f t="shared" si="1"/>
         <v>DNFSB</v>
       </c>
     </row>
-    <row r="7">
-      <c t="s" s="3" r="A7">
-        <v>38</v>
-      </c>
-      <c s="3" r="B7">
+    <row customHeight="1" r="7" ht="15.75">
+      <c t="s" s="4" r="A7">
+        <v>62</v>
+      </c>
+      <c s="4" r="B7">
         <v>11.0</v>
       </c>
-      <c t="s" s="3" r="C7">
-        <v>39</v>
-      </c>
-      <c t="s" s="4" r="D7">
-        <v>40</v>
-      </c>
-      <c t="s" s="3" r="E7">
-        <v>41</v>
-      </c>
-      <c t="s" s="4" r="F7">
-        <v>42</v>
-      </c>
-      <c s="3" r="G7">
+      <c t="s" s="4" r="C7">
+        <v>68</v>
+      </c>
+      <c t="s" s="5" r="D7">
+        <v>69</v>
+      </c>
+      <c t="s" s="4" r="E7">
+        <v>78</v>
+      </c>
+      <c t="s" s="5" r="F7">
+        <v>79</v>
+      </c>
+      <c s="4" r="G7">
         <v>49176.0</v>
       </c>
-      <c t="s" s="4" r="H7">
-        <v>43</v>
-      </c>
-      <c t="s" s="3" r="I7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8">
+      <c t="s" s="5" r="H7">
+        <v>82</v>
+      </c>
+      <c t="s" s="4" r="I7">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" r="8" ht="15.75">
       <c t="s" s="1" r="A8">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c s="1" r="B8">
         <v>67.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>46</v>
-      </c>
-      <c t="s" s="2" r="D8">
-        <v>47</v>
+        <v>87</v>
+      </c>
+      <c t="s" s="3" r="D8">
+        <v>88</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>48</v>
-      </c>
-      <c t="s" s="2" r="F8">
-        <v>49</v>
+        <v>89</v>
+      </c>
+      <c t="s" s="3" r="F8">
+        <v>90</v>
       </c>
       <c s="1" r="G8">
         <v>52608.0</v>
       </c>
-      <c t="s" s="2" r="H8">
-        <v>50</v>
-      </c>
-      <c t="str" r="I8">
+      <c t="s" s="3" r="H8">
+        <v>91</v>
+      </c>
+      <c t="str" s="2" r="I8">
         <f ref="I8:I93" t="shared" si="2">iferror(iferror(REGEXEXTRACT(C8,"\((\w+)\)"),REGEXEXTRACT(E8,"\((\w+)\)")),"")</f>
         <v>FERC</v>
       </c>
     </row>
-    <row r="9">
+    <row customHeight="1" r="9" ht="15.75">
       <c t="s" s="1" r="A9">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c s="1" r="B9">
         <v>39.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>52</v>
-      </c>
-      <c t="s" s="5" r="D9">
-        <v>53</v>
+        <v>99</v>
+      </c>
+      <c t="s" s="6" r="D9">
+        <v>100</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>54</v>
-      </c>
-      <c t="s" s="2" r="F9">
-        <v>55</v>
+        <v>107</v>
+      </c>
+      <c t="s" s="3" r="F9">
+        <v>108</v>
       </c>
       <c s="1" r="G9">
         <v>49033.0</v>
       </c>
-      <c t="s" s="2" r="H9">
-        <v>56</v>
-      </c>
-      <c t="str" r="I9">
+      <c t="s" s="3" r="H9">
+        <v>109</v>
+      </c>
+      <c t="str" s="2" r="I9">
         <f t="shared" si="2"/>
         <v>DOI</v>
       </c>
     </row>
-    <row r="10">
+    <row customHeight="1" r="10" ht="15.75">
       <c t="s" s="1" r="A10">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c s="1" r="B10">
         <v>120.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>58</v>
-      </c>
-      <c t="s" s="2" r="D10">
-        <v>59</v>
+        <v>111</v>
+      </c>
+      <c t="s" s="3" r="D10">
+        <v>112</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>60</v>
-      </c>
-      <c t="s" s="2" r="F10">
-        <v>61</v>
+        <v>113</v>
+      </c>
+      <c t="s" s="3" r="F10">
+        <v>114</v>
       </c>
       <c s="1" r="G10">
         <v>49621.0</v>
       </c>
-      <c t="s" s="2" r="H10">
-        <v>62</v>
-      </c>
-      <c t="str" r="I10">
+      <c t="s" s="3" r="H10">
+        <v>115</v>
+      </c>
+      <c t="str" s="2" r="I10">
         <f t="shared" si="2"/>
         <v>PRC</v>
       </c>
     </row>
-    <row r="11">
+    <row customHeight="1" r="11" ht="15.75">
       <c t="s" s="1" r="A11">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c s="1" r="B11">
         <v>73.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>64</v>
-      </c>
-      <c t="s" s="2" r="D11">
-        <v>65</v>
+        <v>117</v>
+      </c>
+      <c t="s" s="3" r="D11">
+        <v>118</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>66</v>
-      </c>
-      <c t="s" s="2" r="F11">
-        <v>67</v>
+        <v>119</v>
+      </c>
+      <c t="s" s="3" r="F11">
+        <v>120</v>
       </c>
       <c s="1" r="G11">
         <v>52617.0</v>
       </c>
-      <c t="s" s="2" r="H11">
-        <v>68</v>
-      </c>
-      <c t="str" r="I11">
+      <c t="s" s="3" r="H11">
+        <v>121</v>
+      </c>
+      <c t="str" s="2" r="I11">
         <f t="shared" si="2"/>
         <v>FMSHRC</v>
       </c>
     </row>
-    <row r="12">
+    <row customHeight="1" r="12" ht="15.75">
       <c t="s" s="1" r="A12">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c s="1" r="B12">
         <v>146.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>70</v>
-      </c>
-      <c t="s" s="2" r="D12">
-        <v>71</v>
+        <v>123</v>
+      </c>
+      <c t="s" s="3" r="D12">
+        <v>124</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>72</v>
-      </c>
-      <c t="s" s="2" r="F12">
-        <v>73</v>
+        <v>125</v>
+      </c>
+      <c t="s" s="3" r="F12">
+        <v>126</v>
       </c>
       <c s="1" r="G12">
         <v>52583.0</v>
       </c>
-      <c t="s" s="2" r="H12">
-        <v>74</v>
-      </c>
-      <c t="str" r="I12">
+      <c t="s" s="3" r="H12">
+        <v>127</v>
+      </c>
+      <c t="str" s="2" r="I12">
         <f t="shared" si="2"/>
         <v>USAID</v>
       </c>
     </row>
-    <row r="13">
+    <row customHeight="1" r="13" ht="15.75">
       <c t="s" s="1" r="A13">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c s="1" r="B13">
         <v>84.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>76</v>
-      </c>
-      <c t="s" s="2" r="D13">
-        <v>77</v>
+        <v>129</v>
+      </c>
+      <c t="s" s="3" r="D13">
+        <v>130</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>78</v>
-      </c>
-      <c t="s" s="2" r="F13">
-        <v>79</v>
+        <v>131</v>
+      </c>
+      <c t="s" s="3" r="F13">
+        <v>132</v>
       </c>
       <c s="1" r="G13">
         <v>48058.0</v>
       </c>
-      <c t="s" s="2" r="H13">
-        <v>80</v>
-      </c>
-      <c t="str" r="I13">
+      <c t="s" s="3" r="H13">
+        <v>133</v>
+      </c>
+      <c t="str" s="2" r="I13">
         <f t="shared" si="2"/>
         <v>FDA</v>
       </c>
     </row>
-    <row r="14">
+    <row customHeight="1" r="14" ht="15.75">
       <c t="s" s="1" r="A14">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c s="1" r="B14">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>82</v>
-      </c>
-      <c t="s" s="2" r="D14">
-        <v>83</v>
+        <v>135</v>
+      </c>
+      <c t="s" s="3" r="D14">
+        <v>136</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>84</v>
-      </c>
-      <c t="s" s="2" r="F14">
-        <v>85</v>
+        <v>137</v>
+      </c>
+      <c t="s" s="3" r="F14">
+        <v>138</v>
       </c>
       <c s="1" r="G14">
         <v>49068.0</v>
       </c>
-      <c t="s" s="2" r="H14">
-        <v>86</v>
-      </c>
-      <c t="str" r="I14">
+      <c t="s" s="3" r="H14">
+        <v>139</v>
+      </c>
+      <c t="str" s="2" r="I14">
         <f t="shared" si="2"/>
         <v>ACUS</v>
       </c>
     </row>
-    <row r="15">
+    <row customHeight="1" r="15" ht="15.75">
       <c t="s" s="1" r="A15">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c s="1" r="B15">
         <v>131.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>88</v>
-      </c>
-      <c t="s" s="2" r="D15">
-        <v>89</v>
+        <v>141</v>
+      </c>
+      <c t="s" s="3" r="D15">
+        <v>142</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>90</v>
-      </c>
-      <c t="s" s="2" r="F15">
-        <v>91</v>
+        <v>143</v>
+      </c>
+      <c t="s" s="3" r="F15">
+        <v>144</v>
       </c>
       <c s="1" r="G15">
         <v>91587.0</v>
       </c>
-      <c t="s" s="2" r="H15">
-        <v>92</v>
-      </c>
-      <c t="str" r="I15">
+      <c t="s" s="3" r="H15">
+        <v>145</v>
+      </c>
+      <c t="str" s="2" r="I15">
         <f t="shared" si="2"/>
         <v>BEP</v>
       </c>
     </row>
-    <row r="16">
+    <row customHeight="1" r="16" ht="15.75">
       <c t="s" s="1" r="A16">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c s="1" r="B16">
         <v>20.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>94</v>
-      </c>
-      <c t="s" s="2" r="D16">
-        <v>95</v>
+        <v>147</v>
+      </c>
+      <c t="s" s="3" r="D16">
+        <v>148</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>96</v>
-      </c>
-      <c t="s" s="2" r="F16">
-        <v>97</v>
+        <v>149</v>
+      </c>
+      <c t="s" s="3" r="F16">
+        <v>150</v>
       </c>
       <c s="1" r="G16">
         <v>49308.0</v>
       </c>
-      <c t="s" s="2" r="H16">
-        <v>98</v>
-      </c>
-      <c t="str" r="I16">
+      <c t="s" s="3" r="H16">
+        <v>151</v>
+      </c>
+      <c t="str" s="2" r="I16">
         <f t="shared" si="2"/>
         <v>FLETC</v>
       </c>
     </row>
-    <row r="17">
+    <row customHeight="1" r="17" ht="15.75">
       <c t="s" s="1" r="A17">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c s="1" r="B17">
         <v>89.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>100</v>
-      </c>
-      <c t="s" s="5" r="D17">
-        <v>101</v>
+        <v>153</v>
+      </c>
+      <c t="s" s="6" r="D17">
+        <v>154</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>102</v>
-      </c>
-      <c t="s" s="2" r="F17">
-        <v>103</v>
+        <v>155</v>
+      </c>
+      <c t="s" s="3" r="F17">
+        <v>156</v>
       </c>
       <c s="1" r="G17">
         <v>49023.0</v>
       </c>
-      <c t="s" s="2" r="H17">
-        <v>104</v>
-      </c>
-      <c t="str" r="I17">
+      <c t="s" s="3" r="H17">
+        <v>157</v>
+      </c>
+      <c t="str" s="2" r="I17">
         <f t="shared" si="2"/>
         <v>HUD</v>
       </c>
     </row>
-    <row r="18">
+    <row customHeight="1" r="18" ht="15.75">
       <c t="s" s="1" r="A18">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c s="1" r="B18">
         <v>72.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>106</v>
-      </c>
-      <c t="s" s="2" r="D18">
-        <v>107</v>
+        <v>159</v>
+      </c>
+      <c t="s" s="3" r="D18">
+        <v>160</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>108</v>
-      </c>
-      <c t="s" s="2" r="F18">
-        <v>109</v>
+        <v>161</v>
+      </c>
+      <c t="s" s="3" r="F18">
+        <v>162</v>
       </c>
       <c s="1" r="G18">
         <v>49312.0</v>
       </c>
-      <c t="s" s="2" r="H18">
-        <v>110</v>
-      </c>
-      <c t="str" r="I18">
+      <c t="s" s="3" r="H18">
+        <v>163</v>
+      </c>
+      <c t="str" s="2" r="I18">
         <f t="shared" si="2"/>
         <v>FMCS</v>
       </c>
     </row>
-    <row r="19">
+    <row customHeight="1" r="19" ht="15.75">
       <c t="s" s="1" r="A19">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c s="1" r="B19">
         <v>85.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>112</v>
-      </c>
-      <c t="s" s="2" r="D19">
-        <v>113</v>
+        <v>165</v>
+      </c>
+      <c t="s" s="3" r="D19">
+        <v>166</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>114</v>
-      </c>
-      <c t="s" s="2" r="F19">
-        <v>115</v>
+        <v>167</v>
+      </c>
+      <c t="s" s="3" r="F19">
+        <v>168</v>
       </c>
       <c s="1" r="G19">
         <v>49359.0</v>
       </c>
-      <c t="s" s="2" r="H19">
-        <v>116</v>
-      </c>
-      <c t="str" r="I19">
+      <c t="s" s="3" r="H19">
+        <v>169</v>
+      </c>
+      <c t="str" s="2" r="I19">
         <f t="shared" si="2"/>
         <v>HRSA</v>
       </c>
     </row>
-    <row r="20">
+    <row customHeight="1" r="20" ht="15.75">
       <c t="s" s="1" r="A20">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c s="1" r="B20">
         <v>143.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>118</v>
-      </c>
-      <c t="s" s="2" r="D20">
-        <v>119</v>
+        <v>171</v>
+      </c>
+      <c t="s" s="3" r="D20">
+        <v>172</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>120</v>
-      </c>
-      <c t="s" s="2" r="F20">
-        <v>121</v>
+        <v>173</v>
+      </c>
+      <c t="s" s="3" r="F20">
+        <v>174</v>
       </c>
       <c s="1" r="G20">
         <v>48101.0</v>
       </c>
-      <c t="s" s="2" r="H20">
-        <v>122</v>
-      </c>
-      <c t="str" r="I20">
+      <c t="s" s="3" r="H20">
+        <v>175</v>
+      </c>
+      <c t="str" s="2" r="I20">
         <f t="shared" si="2"/>
         <v>OSHA</v>
       </c>
     </row>
-    <row r="21">
+    <row customHeight="1" r="21" ht="15.75">
       <c t="s" s="1" r="A21">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c s="1" r="B21">
         <v>138.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>124</v>
-      </c>
-      <c t="s" s="2" r="D21">
-        <v>125</v>
+        <v>177</v>
+      </c>
+      <c t="s" s="3" r="D21">
+        <v>178</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>126</v>
-      </c>
-      <c t="s" s="2" r="F21">
-        <v>127</v>
+        <v>179</v>
+      </c>
+      <c t="s" s="3" r="F21">
+        <v>180</v>
       </c>
       <c s="1" r="G21">
         <v>49121.0</v>
       </c>
-      <c t="s" s="2" r="H21">
-        <v>128</v>
-      </c>
-      <c t="str" r="I21">
+      <c t="s" s="3" r="H21">
+        <v>181</v>
+      </c>
+      <c t="str" s="2" r="I21">
         <f t="shared" si="2"/>
         <v>ILAB</v>
       </c>
     </row>
-    <row r="22">
+    <row customHeight="1" r="22" ht="15.75">
       <c t="s" s="1" r="A22">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c s="1" r="B22">
         <v>66.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>130</v>
-      </c>
-      <c t="s" s="2" r="D22">
-        <v>131</v>
+        <v>183</v>
+      </c>
+      <c t="s" s="3" r="D22">
+        <v>184</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>132</v>
-      </c>
-      <c t="s" s="2" r="F22">
-        <v>133</v>
+        <v>185</v>
+      </c>
+      <c t="s" s="3" r="F22">
+        <v>186</v>
       </c>
       <c s="1" r="G22">
         <v>52607.0</v>
       </c>
-      <c t="s" s="2" r="H22">
-        <v>134</v>
-      </c>
-      <c t="str" r="I22">
+      <c t="s" s="3" r="H22">
+        <v>187</v>
+      </c>
+      <c t="str" s="2" r="I22">
         <f t="shared" si="2"/>
         <v>FEC</v>
       </c>
     </row>
-    <row r="23">
+    <row customHeight="1" r="23" ht="15.75">
       <c t="s" s="1" r="A23">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c s="1" r="B23">
         <v>47.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c t="s" s="1" r="D23">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>138</v>
-      </c>
-      <c t="s" s="2" r="F23">
-        <v>139</v>
+        <v>191</v>
+      </c>
+      <c t="s" s="3" r="F23">
+        <v>192</v>
       </c>
       <c s="1" r="G23">
         <v>52686.0</v>
       </c>
-      <c t="s" s="2" r="H23">
-        <v>140</v>
-      </c>
-      <c t="str" r="I23">
+      <c t="s" s="3" r="H23">
+        <v>193</v>
+      </c>
+      <c t="str" s="2" r="I23">
         <f t="shared" si="2"/>
         <v>DOJ</v>
       </c>
     </row>
-    <row r="24">
+    <row customHeight="1" r="24" ht="15.75">
       <c t="s" s="1" r="A24">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c s="1" r="B24">
         <v>64.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>142</v>
-      </c>
-      <c t="s" s="2" r="D24">
-        <v>143</v>
+        <v>195</v>
+      </c>
+      <c t="s" s="3" r="D24">
+        <v>196</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>144</v>
-      </c>
-      <c t="s" s="2" r="F24">
-        <v>145</v>
+        <v>197</v>
+      </c>
+      <c t="s" s="3" r="F24">
+        <v>198</v>
       </c>
       <c s="1" r="G24">
         <v>72913.0</v>
       </c>
-      <c t="s" s="2" r="H24">
-        <v>146</v>
-      </c>
-      <c t="str" r="I24">
+      <c t="s" s="3" r="H24">
+        <v>199</v>
+      </c>
+      <c t="str" s="2" r="I24">
         <f t="shared" si="2"/>
         <v>FCSIC</v>
       </c>
     </row>
-    <row r="25">
+    <row customHeight="1" r="25" ht="15.75">
       <c t="s" s="1" r="A25">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c s="1" r="B25">
         <v>10.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>148</v>
-      </c>
-      <c t="s" s="2" r="D25">
-        <v>149</v>
+        <v>201</v>
+      </c>
+      <c t="s" s="3" r="D25">
+        <v>202</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>150</v>
-      </c>
-      <c t="s" s="2" r="F25">
-        <v>151</v>
+        <v>203</v>
+      </c>
+      <c t="s" s="3" r="F25">
+        <v>204</v>
       </c>
       <c s="1" r="G25">
         <v>52593.0</v>
       </c>
-      <c t="s" s="2" r="H25">
-        <v>152</v>
-      </c>
-      <c t="str" r="I25">
+      <c t="s" s="3" r="H25">
+        <v>205</v>
+      </c>
+      <c t="str" s="2" r="I25">
         <f t="shared" si="2"/>
         <v>CNCS</v>
       </c>
     </row>
-    <row r="26">
+    <row customHeight="1" r="26" ht="15.75">
       <c t="s" s="1" r="A26">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c s="1" r="B26">
         <v>130.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>154</v>
-      </c>
-      <c t="s" s="2" r="D26">
-        <v>155</v>
+        <v>207</v>
+      </c>
+      <c t="s" s="3" r="D26">
+        <v>208</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>156</v>
-      </c>
-      <c t="s" s="2" r="F26">
-        <v>157</v>
+        <v>209</v>
+      </c>
+      <c t="s" s="3" r="F26">
+        <v>210</v>
       </c>
       <c s="1" r="G26">
         <v>49082.0</v>
       </c>
-      <c t="s" s="2" r="H26">
-        <v>158</v>
-      </c>
-      <c t="str" r="I26">
+      <c t="s" s="3" r="H26">
+        <v>211</v>
+      </c>
+      <c t="str" s="2" r="I26">
         <f t="shared" si="2"/>
         <v>TTB</v>
       </c>
     </row>
-    <row r="27">
+    <row customHeight="1" r="27" ht="15.75">
       <c t="s" s="1" r="A27">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c s="1" r="B27">
         <v>147.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>160</v>
-      </c>
-      <c t="s" s="2" r="D27">
-        <v>161</v>
+        <v>213</v>
+      </c>
+      <c t="s" s="3" r="D27">
+        <v>214</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>162</v>
-      </c>
-      <c t="s" s="2" r="F27">
-        <v>163</v>
+        <v>215</v>
+      </c>
+      <c t="s" s="3" r="F27">
+        <v>216</v>
       </c>
       <c s="1" r="G27">
         <v>48018.0</v>
       </c>
-      <c t="s" s="2" r="H27">
-        <v>164</v>
-      </c>
-      <c t="str" r="I27">
+      <c t="s" s="3" r="H27">
+        <v>217</v>
+      </c>
+      <c t="str" s="2" r="I27">
         <f t="shared" si="2"/>
         <v>USCCR</v>
       </c>
     </row>
-    <row r="28">
+    <row customHeight="1" r="28" ht="15.75">
       <c t="s" s="1" r="A28">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c s="1" r="B28">
         <v>113.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>166</v>
-      </c>
-      <c t="s" s="2" r="D28">
-        <v>167</v>
+        <v>219</v>
+      </c>
+      <c t="s" s="3" r="D28">
+        <v>220</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>168</v>
-      </c>
-      <c t="s" s="2" r="F28">
-        <v>169</v>
+        <v>221</v>
+      </c>
+      <c t="s" s="3" r="F28">
+        <v>222</v>
       </c>
       <c s="1" r="G28">
         <v>52651.0</v>
       </c>
-      <c t="s" s="2" r="H28">
-        <v>170</v>
-      </c>
-      <c t="str" r="I28">
+      <c t="s" s="3" r="H28">
+        <v>223</v>
+      </c>
+      <c t="str" s="2" r="I28">
         <f t="shared" si="2"/>
         <v>OPIC</v>
       </c>
     </row>
-    <row r="29">
+    <row customHeight="1" r="29" ht="15.75">
       <c t="s" s="1" r="A29">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c s="1" r="B29">
         <v>53.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>172</v>
-      </c>
-      <c t="s" s="2" r="D29">
-        <v>173</v>
+        <v>225</v>
+      </c>
+      <c t="s" s="3" r="D29">
+        <v>226</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>174</v>
-      </c>
-      <c t="s" s="2" r="F29">
-        <v>175</v>
+        <v>227</v>
+      </c>
+      <c t="s" s="3" r="F29">
+        <v>228</v>
       </c>
       <c s="1" r="G29">
         <v>49162.0</v>
       </c>
-      <c t="s" s="2" r="H29">
-        <v>176</v>
-      </c>
-      <c t="str" r="I29">
+      <c t="s" s="3" r="H29">
+        <v>229</v>
+      </c>
+      <c t="str" s="2" r="I29">
         <f t="shared" si="2"/>
         <v>COPS</v>
       </c>
     </row>
-    <row r="30">
+    <row customHeight="1" r="30" ht="15.75">
       <c t="s" s="1" r="A30">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c s="1" r="B30">
         <v>91.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>178</v>
-      </c>
-      <c t="s" s="2" r="D30">
-        <v>179</v>
+        <v>231</v>
+      </c>
+      <c t="s" s="3" r="D30">
+        <v>232</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>180</v>
-      </c>
-      <c t="s" s="2" r="F30">
-        <v>181</v>
+        <v>233</v>
+      </c>
+      <c t="s" s="3" r="F30">
+        <v>234</v>
       </c>
       <c s="1" r="G30">
         <v>52626.0</v>
       </c>
-      <c t="s" s="2" r="H30">
-        <v>182</v>
-      </c>
-      <c t="str" r="I30">
+      <c t="s" s="3" r="H30">
+        <v>235</v>
+      </c>
+      <c t="str" s="2" r="I30">
         <f t="shared" si="2"/>
         <v>IMLS</v>
       </c>
     </row>
-    <row r="31">
+    <row customHeight="1" r="31" ht="15.75">
       <c t="s" s="1" r="A31">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c s="1" r="B31">
         <v>96.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c t="s" s="1" r="D31">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>186</v>
-      </c>
-      <c t="s" s="2" r="F31">
-        <v>187</v>
+        <v>239</v>
+      </c>
+      <c t="s" s="3" r="F31">
+        <v>240</v>
       </c>
       <c s="1" r="G31">
         <v>49476.0</v>
       </c>
-      <c t="s" s="2" r="H31">
-        <v>188</v>
-      </c>
-      <c t="str" r="I31">
+      <c t="s" s="3" r="H31">
+        <v>241</v>
+      </c>
+      <c t="str" s="2" r="I31">
         <f t="shared" si="2"/>
         <v>NASA</v>
       </c>
     </row>
-    <row r="32">
+    <row customHeight="1" r="32" ht="15.75">
       <c t="s" s="1" r="A32">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c s="1" r="B32">
         <v>109.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>190</v>
-      </c>
-      <c t="s" s="2" r="D32">
-        <v>191</v>
+        <v>243</v>
+      </c>
+      <c t="s" s="3" r="D32">
+        <v>244</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>192</v>
-      </c>
-      <c t="s" s="2" r="F32">
-        <v>193</v>
+        <v>245</v>
+      </c>
+      <c t="s" s="3" r="F32">
+        <v>246</v>
       </c>
       <c s="1" r="G32">
         <v>52646.0</v>
       </c>
-      <c t="s" s="2" r="H32">
-        <v>194</v>
-      </c>
-      <c t="str" r="I32">
+      <c t="s" s="3" r="H32">
+        <v>247</v>
+      </c>
+      <c t="str" s="2" r="I32">
         <f t="shared" si="2"/>
         <v>OGE</v>
       </c>
     </row>
-    <row r="33">
+    <row customHeight="1" r="33" ht="15.75">
       <c t="s" s="1" r="A33">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c s="1" r="B33">
         <v>68.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>196</v>
-      </c>
-      <c t="s" s="2" r="D33">
-        <v>197</v>
+        <v>249</v>
+      </c>
+      <c t="s" s="3" r="D33">
+        <v>250</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>198</v>
-      </c>
-      <c t="s" s="2" r="F33">
-        <v>199</v>
+        <v>251</v>
+      </c>
+      <c t="s" s="3" r="F33">
+        <v>252</v>
       </c>
       <c s="1" r="G33">
         <v>49290.0</v>
       </c>
-      <c t="s" s="2" r="H33">
-        <v>200</v>
-      </c>
-      <c t="str" r="I33">
+      <c t="s" s="3" r="H33">
+        <v>253</v>
+      </c>
+      <c t="str" s="2" r="I33">
         <f t="shared" si="2"/>
         <v>FFIEC</v>
       </c>
     </row>
-    <row r="34">
+    <row customHeight="1" r="34" ht="15.75">
       <c t="s" s="1" r="A34">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c s="1" r="B34">
         <v>156.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c t="s" s="1" r="D34">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>204</v>
-      </c>
-      <c t="s" s="2" r="F34">
-        <v>205</v>
+        <v>257</v>
+      </c>
+      <c t="s" s="3" r="F34">
+        <v>258</v>
       </c>
       <c s="1" r="G34">
         <v>48027.0</v>
       </c>
-      <c t="s" s="2" r="H34">
-        <v>206</v>
-      </c>
-      <c t="str" r="I34">
+      <c t="s" s="3" r="H34">
+        <v>259</v>
+      </c>
+      <c t="str" s="2" r="I34">
         <f t="shared" si="2"/>
         <v>VA</v>
       </c>
     </row>
-    <row r="35">
+    <row customHeight="1" r="35" ht="15.75">
       <c t="s" s="1" r="A35">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c s="1" r="B35">
         <v>108.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>208</v>
-      </c>
-      <c t="s" s="2" r="D35">
-        <v>209</v>
+        <v>261</v>
+      </c>
+      <c t="s" s="3" r="D35">
+        <v>262</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>210</v>
-      </c>
-      <c t="s" s="2" r="F35">
-        <v>211</v>
+        <v>263</v>
+      </c>
+      <c t="s" s="3" r="F35">
+        <v>264</v>
       </c>
       <c s="1" r="G35">
         <v>49595.0</v>
       </c>
-      <c t="s" s="2" r="H35">
-        <v>212</v>
-      </c>
-      <c t="str" r="I35">
+      <c t="s" s="3" r="H35">
+        <v>265</v>
+      </c>
+      <c t="str" s="2" r="I35">
         <f t="shared" si="2"/>
         <v>DNI</v>
       </c>
     </row>
-    <row r="36">
+    <row customHeight="1" r="36" ht="15.75">
       <c t="s" s="1" r="A36">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c s="1" r="B36">
         <v>26.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>214</v>
-      </c>
-      <c t="s" s="2" r="D36">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c t="s" s="3" r="D36">
+        <v>268</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>216</v>
-      </c>
-      <c t="s" s="2" r="F36">
-        <v>217</v>
+        <v>269</v>
+      </c>
+      <c t="s" s="3" r="F36">
+        <v>270</v>
       </c>
       <c s="1" r="G36">
         <v>49409.0</v>
       </c>
-      <c t="s" s="2" r="H36">
-        <v>218</v>
-      </c>
-      <c t="str" r="I36">
+      <c t="s" s="3" r="H36">
+        <v>271</v>
+      </c>
+      <c t="str" s="2" r="I36">
         <f t="shared" si="2"/>
         <v>ITA</v>
       </c>
     </row>
-    <row r="37">
+    <row customHeight="1" r="37" ht="15.75">
       <c t="s" s="1" r="A37">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c s="1" r="B37">
         <v>30.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>220</v>
-      </c>
-      <c t="s" s="2" r="D37">
-        <v>221</v>
+        <v>273</v>
+      </c>
+      <c t="s" s="3" r="D37">
+        <v>274</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>222</v>
-      </c>
-      <c t="s" s="2" r="F37">
-        <v>223</v>
+        <v>275</v>
+      </c>
+      <c t="s" s="3" r="F37">
+        <v>276</v>
       </c>
       <c s="1" r="G37">
         <v>49557.0</v>
       </c>
-      <c t="s" s="2" r="H37">
-        <v>224</v>
-      </c>
-      <c t="str" r="I37">
+      <c t="s" s="3" r="H37">
+        <v>277</v>
+      </c>
+      <c t="str" s="2" r="I37">
         <f t="shared" si="2"/>
         <v>NOAA</v>
       </c>
     </row>
-    <row r="38">
+    <row customHeight="1" r="38" ht="15.75">
       <c t="s" s="1" r="A38">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c s="1" r="B38">
         <v>29.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>226</v>
-      </c>
-      <c t="s" s="2" r="D38">
-        <v>227</v>
+        <v>279</v>
+      </c>
+      <c t="s" s="3" r="D38">
+        <v>280</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>228</v>
-      </c>
-      <c t="s" s="2" r="F38">
-        <v>229</v>
+        <v>281</v>
+      </c>
+      <c t="s" s="3" r="F38">
+        <v>282</v>
       </c>
       <c s="1" r="G38">
         <v>49549.0</v>
       </c>
-      <c t="s" s="2" r="H38">
-        <v>230</v>
-      </c>
-      <c t="str" r="I38">
+      <c t="s" s="3" r="H38">
+        <v>283</v>
+      </c>
+      <c t="str" s="2" r="I38">
         <f t="shared" si="2"/>
         <v>NTIS</v>
       </c>
     </row>
-    <row r="39">
+    <row customHeight="1" r="39" ht="15.75">
       <c t="s" s="1" r="A39">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c s="1" r="B39">
         <v>104.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>232</v>
-      </c>
-      <c t="s" s="2" r="D39">
-        <v>233</v>
+        <v>285</v>
+      </c>
+      <c t="s" s="3" r="D39">
+        <v>286</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>234</v>
-      </c>
-      <c t="s" s="2" r="F39">
-        <v>235</v>
+        <v>287</v>
+      </c>
+      <c t="s" s="3" r="F39">
+        <v>288</v>
       </c>
       <c s="1" r="G39">
         <v>49526.0</v>
       </c>
-      <c t="s" s="2" r="H39">
-        <v>236</v>
-      </c>
-      <c t="str" r="I39">
+      <c t="s" s="3" r="H39">
+        <v>289</v>
+      </c>
+      <c t="str" s="2" r="I39">
         <f t="shared" si="2"/>
         <v>NMB</v>
       </c>
     </row>
-    <row r="40">
+    <row customHeight="1" r="40" ht="15.75">
       <c t="s" s="1" r="A40">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c s="1" r="B40">
         <v>118.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>238</v>
-      </c>
-      <c t="s" s="2" r="D40">
-        <v>239</v>
+        <v>291</v>
+      </c>
+      <c t="s" s="3" r="D40">
+        <v>292</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>240</v>
-      </c>
-      <c t="s" s="2" r="F40">
-        <v>241</v>
+        <v>293</v>
+      </c>
+      <c t="s" s="3" r="F40">
+        <v>294</v>
       </c>
       <c s="1" r="G40">
         <v>49052.0</v>
       </c>
-      <c t="s" s="2" r="H40">
-        <v>242</v>
-      </c>
-      <c t="str" r="I40">
+      <c t="s" s="3" r="H40">
+        <v>295</v>
+      </c>
+      <c t="str" s="2" r="I40">
         <f t="shared" si="2"/>
         <v>PBGC</v>
       </c>
     </row>
-    <row r="41">
+    <row customHeight="1" r="41" ht="15.75">
       <c t="s" s="1" r="A41">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c s="1" r="B41">
         <v>87.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>244</v>
-      </c>
-      <c t="s" s="2" r="D41">
-        <v>245</v>
+        <v>297</v>
+      </c>
+      <c t="s" s="3" r="D41">
+        <v>298</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>246</v>
-      </c>
-      <c t="s" s="2" r="F41">
-        <v>247</v>
+        <v>299</v>
+      </c>
+      <c t="s" s="3" r="F41">
+        <v>300</v>
       </c>
       <c s="1" r="G41">
         <v>48089.0</v>
       </c>
-      <c t="s" s="2" r="H41">
-        <v>248</v>
-      </c>
-      <c t="str" r="I41">
+      <c t="s" s="3" r="H41">
+        <v>301</v>
+      </c>
+      <c t="str" s="2" r="I41">
         <f t="shared" si="2"/>
         <v>NIH</v>
       </c>
     </row>
-    <row r="42">
+    <row customHeight="1" r="42" ht="15.75">
       <c t="s" s="1" r="A42">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c s="1" r="B42">
         <v>69.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>250</v>
-      </c>
-      <c t="s" s="2" r="D42">
-        <v>251</v>
+        <v>303</v>
+      </c>
+      <c t="s" s="3" r="D42">
+        <v>304</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>252</v>
-      </c>
-      <c t="s" s="2" r="F42">
-        <v>253</v>
+        <v>305</v>
+      </c>
+      <c t="s" s="3" r="F42">
+        <v>306</v>
       </c>
       <c s="1" r="G42">
         <v>52611.0</v>
       </c>
-      <c t="s" s="2" r="H42">
-        <v>254</v>
-      </c>
-      <c t="str" r="I42">
+      <c t="s" s="3" r="H42">
+        <v>307</v>
+      </c>
+      <c t="str" s="2" r="I42">
         <f t="shared" si="2"/>
         <v>FHFA</v>
       </c>
     </row>
-    <row r="43">
+    <row customHeight="1" r="43" ht="15.75">
       <c t="s" s="1" r="A43">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c s="1" r="B43">
         <v>93.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>256</v>
-      </c>
-      <c t="s" s="2" r="D43">
-        <v>257</v>
+        <v>309</v>
+      </c>
+      <c t="s" s="3" r="D43">
+        <v>310</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>258</v>
-      </c>
-      <c t="s" s="2" r="F43">
-        <v>259</v>
+        <v>311</v>
+      </c>
+      <c t="s" s="3" r="F43">
+        <v>312</v>
       </c>
       <c s="1" r="G43">
         <v>49460.0</v>
       </c>
-      <c t="s" s="2" r="H43">
-        <v>260</v>
-      </c>
-      <c t="str" r="I43">
+      <c t="s" s="3" r="H43">
+        <v>313</v>
+      </c>
+      <c t="str" s="2" r="I43">
         <f t="shared" si="2"/>
         <v>MCC</v>
       </c>
     </row>
-    <row r="44">
+    <row customHeight="1" r="44" ht="15.75">
       <c t="s" s="1" r="A44">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c s="1" r="B44">
         <v>34.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>262</v>
-      </c>
-      <c t="s" s="2" r="D44">
-        <v>263</v>
+        <v>315</v>
+      </c>
+      <c t="s" s="3" r="D44">
+        <v>316</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>264</v>
-      </c>
-      <c t="s" s="2" r="F44">
-        <v>265</v>
+        <v>317</v>
+      </c>
+      <c t="s" s="3" r="F44">
+        <v>318</v>
       </c>
       <c s="1" r="G44">
         <v>49506.0</v>
       </c>
-      <c t="s" s="2" r="H44">
-        <v>266</v>
-      </c>
-      <c t="str" r="I44">
+      <c t="s" s="3" r="H44">
+        <v>319</v>
+      </c>
+      <c t="str" s="2" r="I44">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="45">
+    <row customHeight="1" r="45" ht="15.75">
       <c t="s" s="1" r="A45">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c s="1" r="B45">
         <v>51.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>268</v>
-      </c>
-      <c t="s" s="2" r="D45">
-        <v>269</v>
+        <v>321</v>
+      </c>
+      <c t="s" s="3" r="D45">
+        <v>322</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>270</v>
-      </c>
-      <c t="s" s="2" r="F45">
-        <v>271</v>
+        <v>323</v>
+      </c>
+      <c t="s" s="3" r="F45">
+        <v>324</v>
       </c>
       <c s="1" r="G45">
         <v>49278.0</v>
       </c>
-      <c t="s" s="2" r="H45">
-        <v>272</v>
-      </c>
-      <c t="str" r="I45">
+      <c t="s" s="3" r="H45">
+        <v>325</v>
+      </c>
+      <c t="str" s="2" r="I45">
         <f t="shared" si="2"/>
         <v>FBI</v>
       </c>
     </row>
-    <row r="46">
+    <row customHeight="1" r="46" ht="15.75">
       <c t="s" s="1" r="A46">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c s="1" r="B46">
         <v>123.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>274</v>
-      </c>
-      <c t="s" s="2" r="D46">
-        <v>275</v>
+        <v>327</v>
+      </c>
+      <c t="s" s="3" r="D46">
+        <v>328</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>276</v>
-      </c>
-      <c t="s" s="2" r="F46">
-        <v>277</v>
+        <v>329</v>
+      </c>
+      <c t="s" s="3" r="F46">
+        <v>330</v>
       </c>
       <c s="1" r="G46">
         <v>49054.0</v>
       </c>
-      <c t="s" s="2" r="H46">
-        <v>278</v>
-      </c>
-      <c t="str" r="I46">
+      <c t="s" s="3" r="H46">
+        <v>331</v>
+      </c>
+      <c t="str" s="2" r="I46">
         <f t="shared" si="2"/>
         <v>SEC</v>
       </c>
     </row>
-    <row r="47">
+    <row customHeight="1" r="47" ht="15.75">
       <c t="s" s="1" r="A47">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c s="1" r="B47">
         <v>79.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c t="s" s="1" r="D47">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>282</v>
-      </c>
-      <c t="s" s="2" r="F47">
-        <v>283</v>
+        <v>335</v>
+      </c>
+      <c t="s" s="3" r="F47">
+        <v>336</v>
       </c>
       <c s="1" r="G47">
         <v>49021.0</v>
       </c>
-      <c t="s" s="2" r="H47">
-        <v>284</v>
-      </c>
-      <c t="str" r="I47">
+      <c t="s" s="3" r="H47">
+        <v>337</v>
+      </c>
+      <c t="str" s="2" r="I47">
         <f t="shared" si="2"/>
         <v>HHS</v>
       </c>
     </row>
-    <row r="48">
+    <row customHeight="1" r="48" ht="15.75">
       <c t="s" s="1" r="A48">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c s="1" r="B48">
         <v>56.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>286</v>
-      </c>
-      <c t="s" s="2" r="D48">
-        <v>287</v>
+        <v>339</v>
+      </c>
+      <c t="s" s="3" r="D48">
+        <v>340</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>288</v>
-      </c>
-      <c t="s" s="2" r="F48">
-        <v>289</v>
+        <v>341</v>
+      </c>
+      <c t="s" s="3" r="F48">
+        <v>342</v>
       </c>
       <c s="1" r="G48">
         <v>48033.0</v>
       </c>
-      <c t="s" s="2" r="H48">
-        <v>290</v>
-      </c>
-      <c t="str" r="I48">
+      <c t="s" s="3" r="H48">
+        <v>343</v>
+      </c>
+      <c t="str" s="2" r="I48">
         <f t="shared" si="2"/>
         <v>FAA</v>
       </c>
     </row>
-    <row r="49">
+    <row customHeight="1" r="49" ht="15.75">
       <c t="s" s="1" r="A49">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c s="1" r="B49">
         <v>148.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>292</v>
-      </c>
-      <c t="s" s="6" r="D49">
-        <v>293</v>
+        <v>345</v>
+      </c>
+      <c t="s" s="7" r="D49">
+        <v>346</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>294</v>
-      </c>
-      <c t="s" s="2" r="F49">
-        <v>295</v>
+        <v>347</v>
+      </c>
+      <c t="s" s="3" r="F49">
+        <v>348</v>
       </c>
       <c s="1" r="G49">
         <v>49015.0</v>
       </c>
-      <c t="s" s="2" r="H49">
-        <v>296</v>
-      </c>
-      <c t="str" r="I49">
+      <c t="s" s="3" r="H49">
+        <v>349</v>
+      </c>
+      <c t="str" s="2" r="I49">
         <f t="shared" si="2"/>
         <v>USDA</v>
       </c>
     </row>
-    <row r="50">
+    <row customHeight="1" r="50" ht="15.75">
       <c t="s" s="1" r="A50">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c s="1" r="B50">
         <v>101.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>298</v>
-      </c>
-      <c t="s" s="2" r="D50">
-        <v>299</v>
+        <v>351</v>
+      </c>
+      <c t="s" s="3" r="D50">
+        <v>352</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>300</v>
-      </c>
-      <c t="s" s="2" r="F50">
-        <v>301</v>
+        <v>353</v>
+      </c>
+      <c t="s" s="3" r="F50">
+        <v>354</v>
       </c>
       <c s="1" r="G50">
         <v>52636.0</v>
       </c>
-      <c t="s" s="2" r="H50">
-        <v>302</v>
-      </c>
-      <c t="str" r="I50">
+      <c t="s" s="3" r="H50">
+        <v>355</v>
+      </c>
+      <c t="str" s="2" r="I50">
         <f t="shared" si="2"/>
         <v>NEH</v>
       </c>
     </row>
-    <row r="51">
+    <row customHeight="1" r="51" ht="15.75">
       <c t="s" s="1" r="A51">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c s="1" r="B51">
         <v>90.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>304</v>
-      </c>
-      <c t="s" s="2" r="D51">
-        <v>305</v>
+        <v>357</v>
+      </c>
+      <c t="s" s="3" r="D51">
+        <v>358</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>306</v>
-      </c>
-      <c t="s" s="2" r="F51">
-        <v>307</v>
+        <v>359</v>
+      </c>
+      <c t="s" s="3" r="F51">
+        <v>360</v>
       </c>
       <c s="1" r="G51">
         <v>49404.0</v>
       </c>
-      <c t="s" s="2" r="H51">
-        <v>308</v>
-      </c>
-      <c t="str" r="I51">
+      <c t="s" s="3" r="H51">
+        <v>361</v>
+      </c>
+      <c t="str" s="2" r="I51">
         <f t="shared" si="2"/>
         <v>IAF</v>
       </c>
     </row>
-    <row r="52">
+    <row customHeight="1" r="52" ht="15.75">
       <c t="s" s="1" r="A52">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c s="1" r="B52">
         <v>4.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>310</v>
-      </c>
-      <c t="s" s="2" r="D52">
-        <v>311</v>
+        <v>363</v>
+      </c>
+      <c t="s" s="3" r="D52">
+        <v>364</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>312</v>
-      </c>
-      <c t="s" s="2" r="F52">
-        <v>313</v>
+        <v>365</v>
+      </c>
+      <c t="s" s="3" r="F52">
+        <v>366</v>
       </c>
       <c s="1" r="G52">
         <v>49109.0</v>
       </c>
-      <c t="s" s="2" r="H52">
-        <v>314</v>
-      </c>
-      <c t="str" r="I52">
+      <c t="s" s="3" r="H52">
+        <v>367</v>
+      </c>
+      <c t="str" s="2" r="I52">
         <f t="shared" si="2"/>
         <v>BBG</v>
       </c>
     </row>
-    <row r="53">
+    <row customHeight="1" r="53" ht="15.75">
       <c t="s" s="1" r="A53">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c s="1" r="B53">
         <v>7.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>316</v>
-      </c>
-      <c t="s" s="2" r="D53">
-        <v>317</v>
+        <v>369</v>
+      </c>
+      <c t="s" s="3" r="D53">
+        <v>370</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>318</v>
-      </c>
-      <c t="s" s="2" r="F53">
-        <v>319</v>
+        <v>371</v>
+      </c>
+      <c t="s" s="3" r="F53">
+        <v>372</v>
       </c>
       <c s="1" r="G53">
         <v>48146.0</v>
       </c>
-      <c t="s" s="2" r="H53">
-        <v>320</v>
-      </c>
-      <c t="str" r="I53">
+      <c t="s" s="3" r="H53">
+        <v>373</v>
+      </c>
+      <c t="str" s="2" r="I53">
         <f t="shared" si="2"/>
         <v>CFTC</v>
       </c>
     </row>
-    <row r="54">
+    <row customHeight="1" r="54" ht="15.75">
       <c t="s" s="1" r="A54">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c s="1" r="B54">
         <v>135.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>322</v>
-      </c>
-      <c t="s" s="2" r="D54">
-        <v>323</v>
+        <v>375</v>
+      </c>
+      <c t="s" s="3" r="D54">
+        <v>376</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>324</v>
-      </c>
-      <c t="s" s="2" r="F54">
-        <v>325</v>
+        <v>377</v>
+      </c>
+      <c t="s" s="3" r="F54">
+        <v>378</v>
       </c>
       <c s="1" r="G54">
         <v>52660.0</v>
       </c>
-      <c t="s" s="2" r="H54">
-        <v>326</v>
-      </c>
-      <c t="str" r="I54">
+      <c t="s" s="3" r="H54">
+        <v>379</v>
+      </c>
+      <c t="str" s="2" r="I54">
         <f t="shared" si="2"/>
         <v>TVA</v>
       </c>
     </row>
-    <row r="55">
+    <row customHeight="1" r="55" ht="15.75">
       <c t="s" s="1" r="A55">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c s="1" r="B55">
         <v>99.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c t="s" s="1" r="D55">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>330</v>
-      </c>
-      <c t="s" s="2" r="F55">
-        <v>331</v>
+        <v>383</v>
+      </c>
+      <c t="s" s="3" r="F55">
+        <v>384</v>
       </c>
       <c s="1" r="G55">
         <v>49050.0</v>
       </c>
-      <c t="s" s="2" r="H55">
-        <v>332</v>
-      </c>
-      <c t="str" r="I55">
+      <c t="s" s="3" r="H55">
+        <v>385</v>
+      </c>
+      <c t="str" s="2" r="I55">
         <f t="shared" si="2"/>
         <v>NCUA</v>
       </c>
     </row>
-    <row r="56">
+    <row customHeight="1" r="56" ht="15.75">
       <c t="s" s="1" r="A56">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c s="1" r="B56">
         <v>89.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>334</v>
-      </c>
-      <c t="s" s="6" r="D56">
-        <v>335</v>
+        <v>387</v>
+      </c>
+      <c t="s" s="7" r="D56">
+        <v>388</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>336</v>
-      </c>
-      <c t="s" s="2" r="F56">
-        <v>337</v>
+        <v>389</v>
+      </c>
+      <c t="s" s="3" r="F56">
+        <v>390</v>
       </c>
       <c s="1" r="G56">
         <v>49376.0</v>
       </c>
-      <c t="s" s="2" r="H56">
-        <v>338</v>
-      </c>
-      <c t="str" r="I56">
+      <c t="s" s="3" r="H56">
+        <v>391</v>
+      </c>
+      <c t="str" s="2" r="I56">
         <f t="shared" si="2"/>
         <v>HUD</v>
       </c>
     </row>
-    <row r="57">
+    <row customHeight="1" r="57" ht="15.75">
       <c t="s" s="1" r="A57">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c s="1" r="B57">
         <v>15.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>340</v>
-      </c>
-      <c t="s" s="5" r="D57">
-        <v>341</v>
+        <v>393</v>
+      </c>
+      <c t="s" s="6" r="D57">
+        <v>394</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>342</v>
-      </c>
-      <c t="s" s="2" r="F57">
-        <v>343</v>
+        <v>395</v>
+      </c>
+      <c t="s" s="3" r="F57">
+        <v>396</v>
       </c>
       <c s="1" r="G57">
         <v>49022.0</v>
       </c>
-      <c t="s" s="2" r="H57">
-        <v>344</v>
-      </c>
-      <c t="str" r="I57">
+      <c t="s" s="3" r="H57">
+        <v>397</v>
+      </c>
+      <c t="str" s="2" r="I57">
         <f t="shared" si="2"/>
         <v>DHS</v>
       </c>
     </row>
-    <row r="58">
+    <row customHeight="1" r="58" ht="15.75">
       <c t="s" s="1" r="A58">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c s="1" r="B58">
         <v>86.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>346</v>
-      </c>
-      <c t="s" s="2" r="D58">
-        <v>347</v>
+        <v>399</v>
+      </c>
+      <c t="s" s="3" r="D58">
+        <v>400</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>348</v>
-      </c>
-      <c t="s" s="2" r="F58">
-        <v>349</v>
+        <v>401</v>
+      </c>
+      <c t="s" s="3" r="F58">
+        <v>402</v>
       </c>
       <c s="1" r="G58">
         <v>49386.0</v>
       </c>
-      <c t="s" s="2" r="H58">
-        <v>350</v>
-      </c>
-      <c t="str" r="I58">
+      <c t="s" s="3" r="H58">
+        <v>403</v>
+      </c>
+      <c t="str" s="2" r="I58">
         <f t="shared" si="2"/>
         <v>IHS</v>
       </c>
     </row>
-    <row r="59">
+    <row customHeight="1" r="59" ht="15.75">
       <c t="s" s="1" r="A59">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c s="1" r="B59">
         <v>134.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>352</v>
-      </c>
-      <c t="s" s="2" r="D59">
-        <v>353</v>
+        <v>405</v>
+      </c>
+      <c t="s" s="3" r="D59">
+        <v>406</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>354</v>
-      </c>
-      <c t="s" s="2" r="F59">
-        <v>355</v>
+        <v>407</v>
+      </c>
+      <c t="s" s="3" r="F59">
+        <v>408</v>
       </c>
       <c s="1" r="G59">
         <v>48150.0</v>
       </c>
-      <c t="s" s="2" r="H59">
-        <v>356</v>
-      </c>
-      <c t="str" r="I59">
+      <c t="s" s="3" r="H59">
+        <v>409</v>
+      </c>
+      <c t="str" s="2" r="I59">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="60">
+    <row customHeight="1" r="60" ht="15.75">
       <c t="s" s="1" r="A60">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c s="1" r="B60">
         <v>110.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>358</v>
-      </c>
-      <c t="s" s="2" r="D60">
-        <v>359</v>
+        <v>411</v>
+      </c>
+      <c t="s" s="3" r="D60">
+        <v>412</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>360</v>
-      </c>
-      <c t="s" s="2" r="F60">
-        <v>361</v>
+        <v>413</v>
+      </c>
+      <c t="s" s="3" r="F60">
+        <v>414</v>
       </c>
       <c s="1" r="G60">
         <v>49584.0</v>
       </c>
-      <c t="s" s="2" r="H60">
-        <v>362</v>
-      </c>
-      <c t="str" r="I60">
+      <c t="s" s="3" r="H60">
+        <v>415</v>
+      </c>
+      <c t="str" s="2" r="I60">
         <f t="shared" si="2"/>
         <v>OMB</v>
       </c>
     </row>
-    <row r="61">
+    <row customHeight="1" r="61" ht="15.75">
       <c t="s" s="1" r="A61">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c s="1" r="B61">
         <v>106.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>364</v>
-      </c>
-      <c t="s" s="2" r="D61">
-        <v>365</v>
+        <v>417</v>
+      </c>
+      <c t="s" s="3" r="D61">
+        <v>418</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>366</v>
-      </c>
-      <c t="s" s="2" r="F61">
-        <v>367</v>
+        <v>419</v>
+      </c>
+      <c t="s" s="3" r="F61">
+        <v>420</v>
       </c>
       <c s="1" r="G61">
         <v>52640.0</v>
       </c>
-      <c t="s" s="2" r="H61">
-        <v>368</v>
-      </c>
-      <c t="str" r="I61">
+      <c t="s" s="3" r="H61">
+        <v>421</v>
+      </c>
+      <c t="str" s="2" r="I61">
         <f t="shared" si="2"/>
         <v>NSF</v>
       </c>
     </row>
-    <row r="62">
+    <row customHeight="1" r="62" ht="15.75">
       <c t="s" s="1" r="A62">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c s="1" r="B62">
         <v>115.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>370</v>
-      </c>
-      <c t="s" s="2" r="D62">
-        <v>371</v>
+        <v>423</v>
+      </c>
+      <c t="s" s="3" r="D62">
+        <v>424</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>372</v>
-      </c>
-      <c t="s" s="2" r="F62">
-        <v>373</v>
+        <v>425</v>
+      </c>
+      <c t="s" s="3" r="F62">
+        <v>426</v>
       </c>
       <c s="1" r="G62">
         <v>49593.0</v>
       </c>
-      <c t="s" s="2" r="H62">
-        <v>374</v>
-      </c>
-      <c t="str" r="I62">
+      <c t="s" s="3" r="H62">
+        <v>427</v>
+      </c>
+      <c t="str" s="2" r="I62">
         <f t="shared" si="2"/>
         <v>OSC</v>
       </c>
     </row>
-    <row r="63">
+    <row customHeight="1" r="63" ht="15.75">
       <c t="s" s="1" r="A63">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c s="1" r="B63">
         <v>102.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>376</v>
-      </c>
-      <c t="s" s="2" r="D63">
-        <v>377</v>
+        <v>429</v>
+      </c>
+      <c t="s" s="3" r="D63">
+        <v>430</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>378</v>
-      </c>
-      <c t="s" s="2" r="F63">
-        <v>379</v>
+        <v>431</v>
+      </c>
+      <c t="s" s="3" r="F63">
+        <v>432</v>
       </c>
       <c s="1" r="G63">
         <v>49512.0</v>
       </c>
-      <c t="s" s="2" r="H63">
-        <v>380</v>
-      </c>
-      <c t="str" r="I63">
+      <c t="s" s="3" r="H63">
+        <v>433</v>
+      </c>
+      <c t="str" s="2" r="I63">
         <f t="shared" si="2"/>
         <v>NIGC</v>
       </c>
     </row>
-    <row r="64">
+    <row customHeight="1" r="64" ht="15.75">
       <c t="s" s="1" r="A64">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c s="1" r="B64">
         <v>16.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>382</v>
-      </c>
-      <c t="s" s="2" r="D64">
-        <v>383</v>
+        <v>435</v>
+      </c>
+      <c t="s" s="3" r="D64">
+        <v>436</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>384</v>
-      </c>
-      <c t="s" s="2" r="F64">
-        <v>385</v>
+        <v>437</v>
+      </c>
+      <c t="s" s="3" r="F64">
+        <v>438</v>
       </c>
       <c s="1" r="G64">
         <v>55897.0</v>
       </c>
-      <c t="s" s="2" r="H64">
-        <v>386</v>
-      </c>
-      <c t="str" r="I64">
+      <c t="s" s="3" r="H64">
+        <v>439</v>
+      </c>
+      <c t="str" s="2" r="I64">
         <f t="shared" si="2"/>
         <v>USCIS</v>
       </c>
     </row>
-    <row r="65">
+    <row customHeight="1" r="65" ht="15.75">
       <c t="s" s="1" r="A65">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c s="1" r="B65">
         <v>65.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>388</v>
-      </c>
-      <c t="s" s="2" r="D65">
-        <v>389</v>
+        <v>441</v>
+      </c>
+      <c t="s" s="3" r="D65">
+        <v>442</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>390</v>
-      </c>
-      <c t="s" s="2" r="F65">
-        <v>391</v>
+        <v>443</v>
+      </c>
+      <c t="s" s="3" r="F65">
+        <v>444</v>
       </c>
       <c s="1" r="G65">
         <v>49043.0</v>
       </c>
-      <c t="s" s="2" r="H65">
-        <v>392</v>
-      </c>
-      <c t="str" r="I65">
+      <c t="s" s="3" r="H65">
+        <v>445</v>
+      </c>
+      <c t="str" s="2" r="I65">
         <f t="shared" si="2"/>
         <v>FDIC</v>
       </c>
     </row>
-    <row r="66">
+    <row customHeight="1" r="66" ht="15.75">
       <c t="s" s="1" r="A66">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c s="1" r="B66">
         <v>107.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>394</v>
-      </c>
-      <c t="s" s="2" r="D66">
-        <v>395</v>
+        <v>447</v>
+      </c>
+      <c t="s" s="3" r="D66">
+        <v>448</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>396</v>
-      </c>
-      <c t="s" s="2" r="F66">
-        <v>397</v>
+        <v>449</v>
+      </c>
+      <c t="s" s="3" r="F66">
+        <v>450</v>
       </c>
       <c s="1" r="G66">
         <v>52641.0</v>
       </c>
-      <c t="s" s="2" r="H66">
-        <v>398</v>
-      </c>
-      <c t="str" r="I66">
+      <c t="s" s="3" r="H66">
+        <v>451</v>
+      </c>
+      <c t="str" s="2" r="I66">
         <f t="shared" si="2"/>
         <v>NTSB</v>
       </c>
     </row>
-    <row r="67">
+    <row customHeight="1" r="67" ht="15.75">
       <c t="s" s="1" r="A67">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c s="1" r="B67">
         <v>24.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c t="s" s="1" r="D67">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>402</v>
-      </c>
-      <c t="s" s="2" r="F67">
-        <v>403</v>
+        <v>455</v>
+      </c>
+      <c t="s" s="3" r="F67">
+        <v>456</v>
       </c>
       <c s="1" r="G67">
         <v>52668.0</v>
       </c>
-      <c t="s" s="2" r="H67">
-        <v>404</v>
-      </c>
-      <c t="str" r="I67">
+      <c t="s" s="3" r="H67">
+        <v>457</v>
+      </c>
+      <c t="str" s="2" r="I67">
         <f t="shared" si="2"/>
         <v>DOC</v>
       </c>
     </row>
-    <row r="68">
+    <row customHeight="1" r="68" ht="15.75">
       <c t="s" s="1" r="A68">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c s="1" r="B68">
         <v>137.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c t="s" s="1" r="D68">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>408</v>
-      </c>
-      <c t="s" s="2" r="F68">
-        <v>409</v>
+        <v>461</v>
+      </c>
+      <c t="s" s="3" r="F68">
+        <v>462</v>
       </c>
       <c s="1" r="G68">
         <v>49028.0</v>
       </c>
-      <c t="s" s="2" r="H68">
-        <v>410</v>
-      </c>
-      <c t="str" r="I68">
+      <c t="s" s="3" r="H68">
+        <v>463</v>
+      </c>
+      <c t="str" s="2" r="I68">
         <f t="shared" si="2"/>
         <v>DOL</v>
       </c>
     </row>
-    <row r="69">
+    <row customHeight="1" r="69" ht="15.75">
       <c t="s" s="1" r="A69">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c s="1" r="B69">
         <v>70.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>412</v>
-      </c>
-      <c t="s" s="6" r="D69">
-        <v>413</v>
+        <v>465</v>
+      </c>
+      <c t="s" s="7" r="D69">
+        <v>466</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>414</v>
-      </c>
-      <c t="s" s="2" r="F69">
-        <v>415</v>
+        <v>467</v>
+      </c>
+      <c t="s" s="3" r="F69">
+        <v>468</v>
       </c>
       <c s="1" r="G69">
         <v>52613.0</v>
       </c>
-      <c t="s" s="2" r="H69">
-        <v>416</v>
-      </c>
-      <c t="str" r="I69">
+      <c t="s" s="3" r="H69">
+        <v>469</v>
+      </c>
+      <c t="str" s="2" r="I69">
         <f t="shared" si="2"/>
         <v>FLRA</v>
       </c>
     </row>
-    <row r="70">
+    <row customHeight="1" r="70" ht="15.75">
       <c t="s" s="1" r="A70">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c s="1" r="B70">
         <v>126.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>418</v>
-      </c>
-      <c t="s" s="2" r="D70">
-        <v>419</v>
+        <v>471</v>
+      </c>
+      <c t="s" s="3" r="D70">
+        <v>472</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>420</v>
-      </c>
-      <c t="s" s="2" r="F70">
-        <v>421</v>
+        <v>473</v>
+      </c>
+      <c t="s" s="3" r="F70">
+        <v>474</v>
       </c>
       <c s="1" r="G70">
         <v>52658.0</v>
       </c>
-      <c t="s" s="2" r="H70">
-        <v>422</v>
-      </c>
-      <c t="str" r="I70">
+      <c t="s" s="3" r="H70">
+        <v>475</v>
+      </c>
+      <c t="str" s="2" r="I70">
         <f t="shared" si="2"/>
         <v>SSS</v>
       </c>
     </row>
-    <row r="71">
+    <row customHeight="1" r="71" ht="15.75">
       <c t="s" s="1" r="A71">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c s="1" r="B71">
         <v>42.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>424</v>
-      </c>
-      <c t="s" s="2" r="D71">
-        <v>425</v>
+        <v>477</v>
+      </c>
+      <c t="s" s="3" r="D71">
+        <v>478</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>426</v>
-      </c>
-      <c t="s" s="2" r="F71">
-        <v>427</v>
+        <v>479</v>
+      </c>
+      <c t="s" s="3" r="F71">
+        <v>480</v>
       </c>
       <c s="1" r="G71">
         <v>85122.0</v>
       </c>
-      <c t="s" s="2" r="H71">
-        <v>428</v>
-      </c>
-      <c t="str" r="I71">
+      <c t="s" s="3" r="H71">
+        <v>481</v>
+      </c>
+      <c t="str" s="2" r="I71">
         <f t="shared" si="2"/>
         <v>BOEM</v>
       </c>
     </row>
-    <row r="72">
+    <row customHeight="1" r="72" ht="15.75">
       <c t="s" s="1" r="A72">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c s="1" r="B72">
         <v>127.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c t="s" s="1" r="D72">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>432</v>
-      </c>
-      <c t="s" s="2" r="F72">
-        <v>433</v>
+        <v>485</v>
+      </c>
+      <c t="s" s="3" r="F72">
+        <v>486</v>
       </c>
       <c s="1" r="G72">
         <v>49030.0</v>
       </c>
-      <c t="s" s="2" r="H72">
-        <v>434</v>
-      </c>
-      <c t="str" r="I72">
+      <c t="s" s="3" r="H72">
+        <v>487</v>
+      </c>
+      <c t="str" s="2" r="I72">
         <f t="shared" si="2"/>
         <v>DOS</v>
       </c>
     </row>
-    <row r="73">
+    <row customHeight="1" r="73" ht="15.75">
       <c t="s" s="1" r="A73">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c s="1" r="B73">
         <v>37.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c t="s" s="1" r="D73">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>438</v>
-      </c>
-      <c t="s" s="2" r="F73">
-        <v>439</v>
+        <v>491</v>
+      </c>
+      <c t="s" s="3" r="F73">
+        <v>492</v>
       </c>
       <c s="1" r="G73">
         <v>49019.0</v>
       </c>
-      <c t="s" s="2" r="H73">
-        <v>440</v>
-      </c>
-      <c t="str" r="I73">
+      <c t="s" s="3" r="H73">
+        <v>493</v>
+      </c>
+      <c t="str" s="2" r="I73">
         <f t="shared" si="2"/>
         <v>DOE</v>
       </c>
     </row>
-    <row r="74">
+    <row customHeight="1" r="74" ht="15.75">
       <c t="s" s="1" r="A74">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c s="1" r="B74">
         <v>35.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>442</v>
-      </c>
-      <c t="s" s="2" r="D74">
-        <v>443</v>
+        <v>495</v>
+      </c>
+      <c t="s" s="3" r="D74">
+        <v>496</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>444</v>
-      </c>
-      <c t="s" s="2" r="F74">
-        <v>445</v>
+        <v>497</v>
+      </c>
+      <c t="s" s="3" r="F74">
+        <v>498</v>
       </c>
       <c s="1" r="G74">
         <v>49542.0</v>
       </c>
-      <c t="s" s="2" r="H74">
-        <v>446</v>
-      </c>
-      <c t="str" r="I74">
+      <c t="s" s="3" r="H74">
+        <v>499</v>
+      </c>
+      <c t="str" s="2" r="I74">
         <f t="shared" si="2"/>
         <v>NRO</v>
       </c>
     </row>
-    <row r="75">
+    <row customHeight="1" r="75" ht="15.75">
       <c t="s" s="1" r="A75">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c s="1" r="B75">
         <v>27.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>448</v>
-      </c>
-      <c t="s" s="2" r="D75">
-        <v>449</v>
+        <v>501</v>
+      </c>
+      <c t="s" s="3" r="D75">
+        <v>502</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>450</v>
-      </c>
-      <c t="s" s="2" r="F75">
-        <v>451</v>
+        <v>503</v>
+      </c>
+      <c t="s" s="3" r="F75">
+        <v>504</v>
       </c>
       <c s="1" r="G75">
         <v>49464.0</v>
       </c>
-      <c t="s" s="2" r="H75">
-        <v>452</v>
-      </c>
-      <c t="str" r="I75">
+      <c t="s" s="3" r="H75">
+        <v>505</v>
+      </c>
+      <c t="str" s="2" r="I75">
         <f t="shared" si="2"/>
         <v>MBDA</v>
       </c>
     </row>
-    <row r="76">
+    <row customHeight="1" r="76" ht="15.75">
       <c t="s" s="1" r="A76">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c s="1" r="B76">
         <v>114.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>454</v>
-      </c>
-      <c t="s" s="2" r="D76">
-        <v>455</v>
+        <v>507</v>
+      </c>
+      <c t="s" s="3" r="D76">
+        <v>508</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>456</v>
-      </c>
-      <c t="s" s="2" r="F76">
-        <v>457</v>
+        <v>509</v>
+      </c>
+      <c t="s" s="3" r="F76">
+        <v>510</v>
       </c>
       <c s="1" r="G76">
         <v>48112.0</v>
       </c>
-      <c t="s" s="2" r="H76">
-        <v>458</v>
-      </c>
-      <c t="str" r="I76">
+      <c t="s" s="3" r="H76">
+        <v>511</v>
+      </c>
+      <c t="str" s="2" r="I76">
         <f t="shared" si="2"/>
         <v>OPM</v>
       </c>
     </row>
-    <row r="77">
+    <row customHeight="1" r="77" ht="15.75">
       <c t="s" s="1" r="A77">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c s="1" r="B77">
         <v>62.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>460</v>
-      </c>
-      <c t="s" s="2" r="D77">
-        <v>461</v>
+        <v>513</v>
+      </c>
+      <c t="s" s="3" r="D77">
+        <v>514</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>462</v>
-      </c>
-      <c t="s" s="2" r="F77">
-        <v>463</v>
+        <v>515</v>
+      </c>
+      <c t="s" s="3" r="F77">
+        <v>516</v>
       </c>
       <c s="1" r="G77">
         <v>52605.0</v>
       </c>
-      <c t="s" s="2" r="H77">
-        <v>464</v>
-      </c>
-      <c t="str" r="I77">
+      <c t="s" s="3" r="H77">
+        <v>517</v>
+      </c>
+      <c t="str" s="2" r="I77">
         <f t="shared" si="2"/>
         <v>FCA</v>
       </c>
     </row>
-    <row r="78">
+    <row customHeight="1" r="78" ht="15.75">
       <c t="s" s="1" r="A78">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c s="1" r="B78">
         <v>139.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>466</v>
-      </c>
-      <c t="s" s="2" r="D78">
-        <v>467</v>
+        <v>519</v>
+      </c>
+      <c t="s" s="3" r="D78">
+        <v>520</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>468</v>
-      </c>
-      <c t="s" s="2" r="F78">
-        <v>469</v>
+        <v>521</v>
+      </c>
+      <c t="s" s="3" r="F78">
+        <v>522</v>
       </c>
       <c s="1" r="G78">
         <v>49124.0</v>
       </c>
-      <c t="s" s="2" r="H78">
-        <v>470</v>
-      </c>
-      <c t="str" r="I78">
+      <c t="s" s="3" r="H78">
+        <v>523</v>
+      </c>
+      <c t="str" s="2" r="I78">
         <f t="shared" si="2"/>
         <v>BLS</v>
       </c>
     </row>
-    <row r="79">
+    <row customHeight="1" r="79" ht="15.75">
       <c t="s" s="1" r="A79">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c s="1" r="B79">
         <v>16.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>472</v>
-      </c>
-      <c t="s" s="2" r="D79">
-        <v>473</v>
+        <v>525</v>
+      </c>
+      <c t="s" s="3" r="D79">
+        <v>526</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>474</v>
-      </c>
-      <c t="s" s="2" r="F79">
-        <v>475</v>
+        <v>527</v>
+      </c>
+      <c t="s" s="3" r="F79">
+        <v>528</v>
       </c>
       <c s="1" r="G79">
         <v>49112.0</v>
       </c>
-      <c t="s" s="2" r="H79">
-        <v>476</v>
-      </c>
-      <c t="str" r="I79">
+      <c t="s" s="3" r="H79">
+        <v>529</v>
+      </c>
+      <c t="str" s="2" r="I79">
         <f t="shared" si="2"/>
         <v>USCIS</v>
       </c>
     </row>
-    <row r="80">
+    <row customHeight="1" r="80" ht="15.75">
       <c t="s" s="1" r="A80">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c s="1" r="B80">
         <v>76.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>478</v>
-      </c>
-      <c t="s" s="2" r="D80">
-        <v>479</v>
+        <v>531</v>
+      </c>
+      <c t="s" s="3" r="D80">
+        <v>532</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>480</v>
-      </c>
-      <c t="s" s="2" r="F80">
-        <v>481</v>
+        <v>533</v>
+      </c>
+      <c t="s" s="3" r="F80">
+        <v>534</v>
       </c>
       <c s="1" r="G80">
         <v>49320.0</v>
       </c>
-      <c t="s" s="2" r="H80">
-        <v>482</v>
-      </c>
-      <c t="str" r="I80">
+      <c t="s" s="3" r="H80">
+        <v>535</v>
+      </c>
+      <c t="str" s="2" r="I80">
         <f t="shared" si="2"/>
         <v>FRTIB</v>
       </c>
     </row>
-    <row r="81">
+    <row customHeight="1" r="81" ht="15.75">
       <c t="s" s="1" r="A81">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c s="1" r="B81">
         <v>58.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>484</v>
-      </c>
-      <c t="s" s="2" r="D81">
-        <v>485</v>
+        <v>537</v>
+      </c>
+      <c t="s" s="3" r="D81">
+        <v>538</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>486</v>
-      </c>
-      <c t="s" s="2" r="F81">
-        <v>487</v>
+        <v>539</v>
+      </c>
+      <c t="s" s="3" r="F81">
+        <v>540</v>
       </c>
       <c s="1" r="G81">
         <v>49018.0</v>
       </c>
-      <c t="s" s="2" r="H81">
-        <v>488</v>
-      </c>
-      <c t="str" r="I81">
+      <c t="s" s="3" r="H81">
+        <v>541</v>
+      </c>
+      <c t="str" s="2" r="I81">
         <f t="shared" si="2"/>
         <v>ED</v>
       </c>
     </row>
-    <row r="82">
+    <row customHeight="1" r="82" ht="15.75">
       <c t="s" s="1" r="A82">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c s="1" r="B82">
         <v>77.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>490</v>
-      </c>
-      <c t="s" s="2" r="D82">
-        <v>491</v>
+        <v>543</v>
+      </c>
+      <c t="s" s="3" r="D82">
+        <v>544</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>492</v>
-      </c>
-      <c t="s" s="2" r="F82">
-        <v>493</v>
+        <v>545</v>
+      </c>
+      <c t="s" s="3" r="F82">
+        <v>546</v>
       </c>
       <c s="1" r="G82">
         <v>49047.0</v>
       </c>
-      <c t="s" s="2" r="H82">
-        <v>494</v>
-      </c>
-      <c t="str" r="I82">
+      <c t="s" s="3" r="H82">
+        <v>547</v>
+      </c>
+      <c t="str" s="2" r="I82">
         <f t="shared" si="2"/>
         <v>FTC</v>
       </c>
     </row>
-    <row r="83">
+    <row customHeight="1" r="83" ht="15.75">
       <c t="s" s="1" r="A83">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c s="1" r="B83">
         <v>82.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>496</v>
-      </c>
-      <c t="s" s="2" r="D83">
-        <v>497</v>
+        <v>549</v>
+      </c>
+      <c t="s" s="3" r="D83">
+        <v>550</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>498</v>
-      </c>
-      <c t="s" s="2" r="F83">
-        <v>499</v>
+        <v>551</v>
+      </c>
+      <c t="s" s="3" r="F83">
+        <v>552</v>
       </c>
       <c s="1" r="G83">
         <v>48013.0</v>
       </c>
-      <c t="s" s="2" r="H83">
-        <v>500</v>
-      </c>
-      <c t="str" r="I83">
+      <c t="s" s="3" r="H83">
+        <v>553</v>
+      </c>
+      <c t="str" s="2" r="I83">
         <f t="shared" si="2"/>
         <v>CDC</v>
       </c>
     </row>
-    <row r="84">
+    <row customHeight="1" r="84" ht="15.75">
       <c t="s" s="1" r="A84">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c s="1" r="B84">
         <v>19.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>502</v>
-      </c>
-      <c t="s" s="2" r="D84">
-        <v>503</v>
+        <v>555</v>
+      </c>
+      <c t="s" s="3" r="D84">
+        <v>556</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>504</v>
-      </c>
-      <c t="s" s="2" r="F84">
-        <v>505</v>
+        <v>557</v>
+      </c>
+      <c t="s" s="3" r="F84">
+        <v>558</v>
       </c>
       <c s="1" r="G84">
         <v>48042.0</v>
       </c>
-      <c t="s" s="2" r="H84">
-        <v>506</v>
-      </c>
-      <c t="str" r="I84">
+      <c t="s" s="3" r="H84">
+        <v>559</v>
+      </c>
+      <c t="str" s="2" r="I84">
         <f t="shared" si="2"/>
         <v>FEMA</v>
       </c>
     </row>
-    <row r="85">
+    <row customHeight="1" r="85" ht="15.75">
       <c t="s" s="1" r="A85">
-        <v>507</v>
+        <v>560</v>
       </c>
       <c s="1" r="B85">
         <v>60.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c t="s" s="1" r="D85">
-        <v>509</v>
+        <v>562</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>510</v>
-      </c>
-      <c t="s" s="2" r="F85">
-        <v>511</v>
+        <v>563</v>
+      </c>
+      <c t="s" s="3" r="F85">
+        <v>564</v>
       </c>
       <c s="1" r="G85">
         <v>49039.0</v>
       </c>
-      <c t="s" s="2" r="H85">
-        <v>512</v>
-      </c>
-      <c t="str" r="I85">
+      <c t="s" s="3" r="H85">
+        <v>565</v>
+      </c>
+      <c t="str" s="2" r="I85">
         <f t="shared" si="2"/>
         <v>EPA</v>
       </c>
     </row>
-    <row r="86">
+    <row customHeight="1" r="86" ht="15.75">
       <c t="s" s="1" r="A86">
-        <v>513</v>
+        <v>566</v>
       </c>
       <c s="1" r="B86">
         <v>122.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>514</v>
-      </c>
-      <c t="s" s="2" r="D86">
-        <v>515</v>
+        <v>567</v>
+      </c>
+      <c t="s" s="3" r="D86">
+        <v>568</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>516</v>
-      </c>
-      <c t="s" s="2" r="F86">
-        <v>517</v>
+        <v>569</v>
+      </c>
+      <c t="s" s="3" r="F86">
+        <v>570</v>
       </c>
       <c s="1" r="G86">
         <v>48139.0</v>
       </c>
-      <c t="s" s="2" r="H86">
-        <v>518</v>
-      </c>
-      <c t="str" r="I86">
+      <c t="s" s="3" r="H86">
+        <v>571</v>
+      </c>
+      <c t="str" s="2" r="I86">
         <f t="shared" si="2"/>
         <v>SBA</v>
       </c>
     </row>
-    <row r="87">
+    <row customHeight="1" r="87" ht="15.75">
       <c t="s" s="1" r="A87">
-        <v>519</v>
+        <v>572</v>
       </c>
       <c s="1" r="B87">
         <v>92.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>520</v>
-      </c>
-      <c t="s" s="2" r="D87">
-        <v>521</v>
+        <v>573</v>
+      </c>
+      <c t="s" s="3" r="D87">
+        <v>574</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>522</v>
-      </c>
-      <c t="s" s="2" r="F87">
-        <v>523</v>
+        <v>575</v>
+      </c>
+      <c t="s" s="3" r="F87">
+        <v>576</v>
       </c>
       <c s="1" r="G87">
         <v>49442.0</v>
       </c>
-      <c t="s" s="2" r="H87">
-        <v>524</v>
-      </c>
-      <c t="str" r="I87">
+      <c t="s" s="3" r="H87">
+        <v>577</v>
+      </c>
+      <c t="str" s="2" r="I87">
         <f t="shared" si="2"/>
         <v>LSC</v>
       </c>
     </row>
-    <row r="88">
+    <row customHeight="1" r="88" ht="15.75">
       <c t="s" s="1" r="A88">
-        <v>525</v>
+        <v>578</v>
       </c>
       <c s="1" r="B88">
         <v>8.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>526</v>
-      </c>
-      <c t="s" s="2" r="D88">
-        <v>527</v>
+        <v>579</v>
+      </c>
+      <c t="s" s="3" r="D88">
+        <v>580</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>528</v>
-      </c>
-      <c t="s" s="2" r="F88">
-        <v>529</v>
+        <v>581</v>
+      </c>
+      <c t="s" s="3" r="F88">
+        <v>582</v>
       </c>
       <c s="1" r="G88">
         <v>52590.0</v>
       </c>
-      <c t="s" s="2" r="H88">
-        <v>530</v>
-      </c>
-      <c t="str" r="I88">
+      <c t="s" s="3" r="H88">
+        <v>583</v>
+      </c>
+      <c t="str" s="2" r="I88">
         <f t="shared" si="2"/>
         <v>CIA</v>
       </c>
     </row>
-    <row r="89">
+    <row customHeight="1" r="89" ht="15.75">
       <c t="s" s="1" r="A89">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c s="1" r="B89">
         <v>145.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>532</v>
+        <v>585</v>
       </c>
       <c t="s" s="1" r="D89">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>534</v>
-      </c>
-      <c t="s" s="2" r="F89">
-        <v>535</v>
+        <v>587</v>
+      </c>
+      <c t="s" s="3" r="F89">
+        <v>588</v>
       </c>
       <c s="1" r="G89">
         <v>52657.0</v>
       </c>
-      <c t="s" s="2" r="H89">
-        <v>536</v>
-      </c>
-      <c t="str" r="I89">
+      <c t="s" s="3" r="H89">
+        <v>589</v>
+      </c>
+      <c t="str" s="2" r="I89">
         <f t="shared" si="2"/>
         <v>RRB</v>
       </c>
     </row>
-    <row r="90">
+    <row customHeight="1" r="90" ht="15.75">
       <c t="s" s="1" r="A90">
-        <v>537</v>
+        <v>590</v>
       </c>
       <c s="1" r="B90">
         <v>46.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>538</v>
-      </c>
-      <c t="s" s="2" r="D90">
-        <v>539</v>
+        <v>591</v>
+      </c>
+      <c t="s" s="3" r="D90">
+        <v>592</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>540</v>
-      </c>
-      <c t="s" s="2" r="F90">
-        <v>541</v>
+        <v>593</v>
+      </c>
+      <c t="s" s="3" r="F90">
+        <v>594</v>
       </c>
       <c s="1" r="G90">
         <v>48091.0</v>
       </c>
-      <c t="s" s="2" r="H90">
-        <v>542</v>
-      </c>
-      <c t="str" r="I90">
+      <c t="s" s="3" r="H90">
+        <v>595</v>
+      </c>
+      <c t="str" s="2" r="I90">
         <f t="shared" si="2"/>
         <v>NPS</v>
       </c>
     </row>
-    <row r="91">
+    <row customHeight="1" r="91" ht="15.75">
       <c t="s" s="1" r="A91">
-        <v>543</v>
+        <v>596</v>
       </c>
       <c s="1" r="B91">
         <v>40.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>544</v>
-      </c>
-      <c t="s" s="2" r="D91">
-        <v>545</v>
+        <v>597</v>
+      </c>
+      <c t="s" s="3" r="D91">
+        <v>598</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>546</v>
-      </c>
-      <c t="s" s="2" r="F91">
-        <v>547</v>
+        <v>599</v>
+      </c>
+      <c t="s" s="3" r="F91">
+        <v>600</v>
       </c>
       <c s="1" r="G91">
         <v>49383.0</v>
       </c>
-      <c t="s" s="2" r="H91">
-        <v>548</v>
-      </c>
-      <c t="str" r="I91">
+      <c t="s" s="3" r="H91">
+        <v>601</v>
+      </c>
+      <c t="str" s="2" r="I91">
         <f t="shared" si="2"/>
         <v>BIA</v>
       </c>
     </row>
-    <row r="92">
+    <row customHeight="1" r="92" ht="15.75">
       <c t="s" s="1" r="A92">
-        <v>549</v>
+        <v>602</v>
       </c>
       <c s="1" r="B92">
         <v>152.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c t="s" s="1" r="D92">
-        <v>551</v>
+        <v>604</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>552</v>
-      </c>
-      <c t="s" s="2" r="F92">
-        <v>553</v>
+        <v>605</v>
+      </c>
+      <c t="s" s="3" r="F92">
+        <v>606</v>
       </c>
       <c s="1" r="G92">
         <v>49061.0</v>
       </c>
-      <c t="s" s="2" r="H92">
-        <v>554</v>
-      </c>
-      <c t="str" r="I92">
+      <c t="s" s="3" r="H92">
+        <v>607</v>
+      </c>
+      <c t="str" s="2" r="I92">
         <f t="shared" si="2"/>
         <v>USPS</v>
       </c>
     </row>
-    <row r="93">
+    <row customHeight="1" r="93" ht="15.75">
       <c t="s" s="1" r="A93">
-        <v>555</v>
+        <v>608</v>
       </c>
       <c s="1" r="B93">
         <v>46.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>556</v>
-      </c>
-      <c t="s" s="2" r="D93">
-        <v>557</v>
+        <v>609</v>
+      </c>
+      <c t="s" s="3" r="D93">
+        <v>610</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>558</v>
-      </c>
-      <c t="s" s="2" r="F93">
-        <v>559</v>
+        <v>611</v>
+      </c>
+      <c t="s" s="3" r="F93">
+        <v>612</v>
       </c>
       <c s="1" r="G93">
         <v>49539.0</v>
       </c>
-      <c t="s" s="2" r="H93">
-        <v>560</v>
-      </c>
-      <c t="str" r="I93">
+      <c t="s" s="3" r="H93">
+        <v>613</v>
+      </c>
+      <c t="str" s="2" r="I93">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="94">
-      <c t="s" s="3" r="A94">
-        <v>561</v>
-      </c>
-      <c s="3" r="B94">
+    <row customHeight="1" r="94" ht="15.75">
+      <c t="s" s="4" r="A94">
+        <v>614</v>
+      </c>
+      <c s="4" r="B94">
         <v>71.0</v>
       </c>
-      <c t="s" s="3" r="C94">
-        <v>562</v>
-      </c>
-      <c t="s" s="4" r="D94">
-        <v>563</v>
-      </c>
-      <c t="s" s="3" r="E94">
-        <v>564</v>
-      </c>
-      <c t="s" s="4" r="F94">
-        <v>565</v>
-      </c>
-      <c s="3" r="G94">
+      <c t="s" s="4" r="C94">
+        <v>615</v>
+      </c>
+      <c t="s" s="5" r="D94">
+        <v>616</v>
+      </c>
+      <c t="s" s="4" r="E94">
+        <v>617</v>
+      </c>
+      <c t="s" s="5" r="F94">
+        <v>618</v>
+      </c>
+      <c s="4" r="G94">
         <v>52615.0</v>
       </c>
-      <c t="s" s="4" r="H94">
-        <v>566</v>
-      </c>
-      <c t="s" s="3" r="I94">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="95">
-      <c t="s" s="3" r="A95">
-        <v>568</v>
-      </c>
-      <c s="3" r="B95">
+      <c t="s" s="5" r="H94">
+        <v>619</v>
+      </c>
+      <c t="s" s="4" r="I94">
+        <v>620</v>
+      </c>
+    </row>
+    <row customHeight="1" r="95" ht="15.75">
+      <c t="s" s="4" r="A95">
+        <v>621</v>
+      </c>
+      <c s="4" r="B95">
         <v>144.0</v>
       </c>
-      <c t="s" s="3" r="C95">
-        <v>569</v>
-      </c>
-      <c t="s" s="4" r="D95">
-        <v>570</v>
-      </c>
-      <c t="s" s="3" r="E95">
-        <v>571</v>
-      </c>
-      <c t="s" s="4" r="F95">
-        <v>572</v>
-      </c>
-      <c s="3" r="G95">
+      <c t="s" s="4" r="C95">
+        <v>622</v>
+      </c>
+      <c t="s" s="5" r="D95">
+        <v>623</v>
+      </c>
+      <c t="s" s="4" r="E95">
+        <v>624</v>
+      </c>
+      <c t="s" s="5" r="F95">
+        <v>625</v>
+      </c>
+      <c s="4" r="G95">
         <v>52581.0</v>
       </c>
-      <c t="s" s="4" r="H95">
-        <v>573</v>
-      </c>
-      <c t="s" s="3" r="I95">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="96">
-      <c t="s" s="3" r="A96">
-        <v>575</v>
-      </c>
-      <c s="3" r="B96">
+      <c t="s" s="5" r="H95">
+        <v>626</v>
+      </c>
+      <c t="s" s="4" r="I95">
+        <v>627</v>
+      </c>
+    </row>
+    <row customHeight="1" r="96" ht="15.75">
+      <c t="s" s="4" r="A96">
+        <v>628</v>
+      </c>
+      <c s="4" r="B96">
         <v>116.0</v>
       </c>
-      <c t="s" s="3" r="C96">
-        <v>576</v>
-      </c>
-      <c t="s" s="4" r="D96">
-        <v>577</v>
-      </c>
-      <c t="s" s="3" r="E96">
-        <v>578</v>
-      </c>
-      <c t="s" s="4" r="F96">
-        <v>579</v>
-      </c>
-      <c s="3" r="G96">
+      <c t="s" s="4" r="C96">
+        <v>629</v>
+      </c>
+      <c t="s" s="5" r="D96">
+        <v>630</v>
+      </c>
+      <c t="s" s="4" r="E96">
+        <v>631</v>
+      </c>
+      <c t="s" s="5" r="F96">
+        <v>632</v>
+      </c>
+      <c s="4" r="G96">
         <v>49577.0</v>
       </c>
-      <c t="s" s="4" r="H96">
-        <v>580</v>
-      </c>
-      <c t="s" s="3" r="I96">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="97">
-      <c t="s" s="3" r="A97">
-        <v>582</v>
-      </c>
-      <c s="3" r="B97">
+      <c t="s" s="5" r="H96">
+        <v>633</v>
+      </c>
+      <c t="s" s="4" r="I96">
+        <v>634</v>
+      </c>
+    </row>
+    <row customHeight="1" r="97" ht="15.75">
+      <c t="s" s="4" r="A97">
+        <v>635</v>
+      </c>
+      <c s="4" r="B97">
         <v>3.0</v>
       </c>
-      <c t="s" s="3" r="C97">
-        <v>583</v>
-      </c>
-      <c t="s" s="4" r="D97">
-        <v>584</v>
-      </c>
-      <c t="s" s="3" r="E97">
-        <v>585</v>
-      </c>
-      <c t="s" s="4" r="F97">
-        <v>586</v>
-      </c>
-      <c s="3" r="G97">
+      <c t="s" s="4" r="C97">
+        <v>636</v>
+      </c>
+      <c t="s" s="5" r="D97">
+        <v>637</v>
+      </c>
+      <c t="s" s="4" r="E97">
+        <v>638</v>
+      </c>
+      <c t="s" s="5" r="F97">
+        <v>639</v>
+      </c>
+      <c s="4" r="G97">
         <v>49093.0</v>
       </c>
-      <c t="s" s="4" r="H97">
-        <v>587</v>
-      </c>
-      <c t="s" s="3" r="I97">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="98">
+      <c t="s" s="5" r="H97">
+        <v>640</v>
+      </c>
+      <c t="s" s="4" r="I97">
+        <v>641</v>
+      </c>
+    </row>
+    <row customHeight="1" r="98" ht="15.75">
       <c t="s" s="1" r="A98">
-        <v>589</v>
+        <v>642</v>
       </c>
       <c s="1" r="B98">
         <v>78.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>590</v>
-      </c>
-      <c t="s" s="2" r="D98">
-        <v>591</v>
+        <v>643</v>
+      </c>
+      <c t="s" s="3" r="D98">
+        <v>644</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>592</v>
-      </c>
-      <c t="s" s="2" r="F98">
-        <v>593</v>
+        <v>645</v>
+      </c>
+      <c t="s" s="3" r="F98">
+        <v>646</v>
       </c>
       <c s="1" r="G98">
         <v>49048.0</v>
       </c>
-      <c t="s" s="2" r="H98">
-        <v>594</v>
-      </c>
-      <c t="str" r="I98">
+      <c t="s" s="3" r="H98">
+        <v>647</v>
+      </c>
+      <c t="str" s="2" r="I98">
         <f ref="I98:I108" t="shared" si="3">iferror(iferror(REGEXEXTRACT(C98,"\((\w+)\)"),REGEXEXTRACT(E98,"\((\w+)\)")),"")</f>
         <v>GSA</v>
       </c>
     </row>
-    <row r="99">
+    <row customHeight="1" r="99" ht="15.75">
       <c t="s" s="1" r="A99">
-        <v>595</v>
+        <v>648</v>
       </c>
       <c s="1" r="B99">
         <v>31.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>596</v>
-      </c>
-      <c t="s" s="2" r="D99">
-        <v>597</v>
+        <v>649</v>
+      </c>
+      <c t="s" s="3" r="D99">
+        <v>650</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>598</v>
-      </c>
-      <c t="s" s="2" r="F99">
-        <v>599</v>
+        <v>651</v>
+      </c>
+      <c t="s" s="3" r="F99">
+        <v>652</v>
       </c>
       <c s="1" r="G99">
         <v>48151.0</v>
       </c>
-      <c t="s" s="2" r="H99">
-        <v>600</v>
-      </c>
-      <c t="str" r="I99">
+      <c t="s" s="3" r="H99">
+        <v>653</v>
+      </c>
+      <c t="str" s="2" r="I99">
         <f t="shared" si="3"/>
         <v>USPTO</v>
       </c>
     </row>
-    <row r="100">
+    <row customHeight="1" r="100" ht="15.75">
       <c t="s" s="1" r="A100">
-        <v>601</v>
+        <v>654</v>
       </c>
       <c s="1" r="B100">
         <v>17.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>602</v>
-      </c>
-      <c t="s" s="2" r="D100">
-        <v>603</v>
+        <v>655</v>
+      </c>
+      <c t="s" s="3" r="D100">
+        <v>656</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>604</v>
-      </c>
-      <c t="s" s="2" r="F100">
-        <v>605</v>
+        <v>657</v>
+      </c>
+      <c t="s" s="3" r="F100">
+        <v>658</v>
       </c>
       <c s="1" r="G100">
         <v>49149.0</v>
       </c>
-      <c t="s" s="2" r="H100">
-        <v>606</v>
-      </c>
-      <c t="str" r="I100">
+      <c t="s" s="3" r="H100">
+        <v>659</v>
+      </c>
+      <c t="str" s="2" r="I100">
         <f t="shared" si="3"/>
         <v>USCG</v>
       </c>
     </row>
-    <row r="101">
+    <row customHeight="1" r="101" ht="15.75">
       <c t="s" s="1" r="A101">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c s="1" r="B101">
         <v>52.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>608</v>
-      </c>
-      <c t="s" s="2" r="D101">
-        <v>609</v>
+        <v>661</v>
+      </c>
+      <c t="s" s="3" r="D101">
+        <v>662</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>610</v>
-      </c>
-      <c t="s" s="2" r="F101">
-        <v>611</v>
+        <v>663</v>
+      </c>
+      <c t="s" s="3" r="F101">
+        <v>664</v>
       </c>
       <c s="1" r="G101">
         <v>49126.0</v>
       </c>
-      <c t="s" s="2" r="H101">
-        <v>612</v>
-      </c>
-      <c t="str" r="I101">
+      <c t="s" s="3" r="H101">
+        <v>665</v>
+      </c>
+      <c t="str" s="2" r="I101">
         <f t="shared" si="3"/>
         <v>BOP</v>
       </c>
     </row>
-    <row r="102">
+    <row customHeight="1" r="102" ht="15.75">
       <c t="s" s="1" r="A102">
-        <v>613</v>
+        <v>666</v>
       </c>
       <c s="1" r="B102">
         <v>59.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>614</v>
+        <v>667</v>
       </c>
       <c t="s" s="1" r="D102">
-        <v>615</v>
+        <v>668</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>616</v>
-      </c>
-      <c t="s" s="2" r="F102">
-        <v>617</v>
+        <v>669</v>
+      </c>
+      <c t="s" s="3" r="F102">
+        <v>670</v>
       </c>
       <c s="1" r="G102">
         <v>48032.0</v>
       </c>
-      <c t="s" s="2" r="H102">
-        <v>618</v>
-      </c>
-      <c t="str" r="I102">
+      <c t="s" s="3" r="H102">
+        <v>671</v>
+      </c>
+      <c t="str" s="2" r="I102">
         <f t="shared" si="3"/>
         <v>EEOC</v>
       </c>
     </row>
-    <row r="103">
+    <row customHeight="1" r="103" ht="15.75">
       <c t="s" s="1" r="A103">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c s="1" r="B103">
         <v>81.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>620</v>
-      </c>
-      <c t="s" s="2" r="D103">
-        <v>621</v>
+        <v>673</v>
+      </c>
+      <c t="s" s="3" r="D103">
+        <v>674</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>622</v>
-      </c>
-      <c t="s" s="2" r="F103">
-        <v>623</v>
+        <v>675</v>
+      </c>
+      <c t="s" s="3" r="F103">
+        <v>676</v>
       </c>
       <c s="1" r="G103">
         <v>49074.0</v>
       </c>
-      <c t="s" s="2" r="H103">
-        <v>624</v>
-      </c>
-      <c t="str" r="I103">
+      <c t="s" s="3" r="H103">
+        <v>677</v>
+      </c>
+      <c t="str" s="2" r="I103">
         <f t="shared" si="3"/>
         <v>AHRQ</v>
       </c>
     </row>
-    <row r="104">
+    <row customHeight="1" r="104" ht="15.75">
       <c t="s" s="1" r="A104">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c s="1" r="B104">
         <v>111.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>626</v>
-      </c>
-      <c t="s" s="2" r="D104">
-        <v>627</v>
+        <v>679</v>
+      </c>
+      <c t="s" s="3" r="D104">
+        <v>680</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>628</v>
-      </c>
-      <c t="s" s="2" r="F104">
-        <v>629</v>
+        <v>681</v>
+      </c>
+      <c t="s" s="3" r="F104">
+        <v>682</v>
       </c>
       <c s="1" r="G104">
         <v>49586.0</v>
       </c>
-      <c t="s" s="2" r="H104">
-        <v>630</v>
-      </c>
-      <c t="str" r="I104">
+      <c t="s" s="3" r="H104">
+        <v>683</v>
+      </c>
+      <c t="str" s="2" r="I104">
         <f t="shared" si="3"/>
         <v>ONDCP</v>
       </c>
     </row>
-    <row r="105">
+    <row customHeight="1" r="105" ht="15.75">
       <c t="s" s="1" r="A105">
-        <v>631</v>
+        <v>684</v>
       </c>
       <c s="1" r="B105">
         <v>6.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>632</v>
-      </c>
-      <c t="s" s="2" r="D105">
-        <v>633</v>
+        <v>685</v>
+      </c>
+      <c t="s" s="3" r="D105">
+        <v>686</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>634</v>
-      </c>
-      <c t="s" s="2" r="F105">
-        <v>635</v>
+        <v>687</v>
+      </c>
+      <c t="s" s="3" r="F105">
+        <v>688</v>
       </c>
       <c s="1" r="G105">
         <v>49113.0</v>
       </c>
-      <c t="s" s="2" r="H105">
-        <v>636</v>
-      </c>
-      <c t="str" r="I105">
+      <c t="s" s="3" r="H105">
+        <v>689</v>
+      </c>
+      <c t="str" s="2" r="I105">
         <f t="shared" si="3"/>
         <v>CFPB</v>
       </c>
     </row>
-    <row r="106">
+    <row customHeight="1" r="106" ht="15.75">
       <c t="s" s="1" r="A106">
-        <v>637</v>
+        <v>690</v>
       </c>
       <c s="1" r="B106">
         <v>50.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>638</v>
-      </c>
-      <c t="s" s="2" r="D106">
-        <v>639</v>
+        <v>691</v>
+      </c>
+      <c t="s" s="3" r="D106">
+        <v>692</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>640</v>
-      </c>
-      <c t="s" s="2" r="F106">
-        <v>641</v>
+        <v>693</v>
+      </c>
+      <c t="s" s="3" r="F106">
+        <v>694</v>
       </c>
       <c s="1" r="G106">
         <v>52688.0</v>
       </c>
-      <c t="s" s="2" r="H106">
-        <v>642</v>
-      </c>
-      <c t="str" r="I106">
+      <c t="s" s="3" r="H106">
+        <v>695</v>
+      </c>
+      <c t="str" s="2" r="I106">
         <f t="shared" si="3"/>
         <v>DEA</v>
       </c>
     </row>
-    <row r="107">
+    <row customHeight="1" r="107" ht="15.75">
       <c t="s" s="1" r="A107">
-        <v>643</v>
+        <v>696</v>
       </c>
       <c s="1" r="B107">
         <v>128.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>644</v>
-      </c>
-      <c t="s" s="2" r="D107">
-        <v>645</v>
+        <v>697</v>
+      </c>
+      <c t="s" s="3" r="D107">
+        <v>698</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>646</v>
-      </c>
-      <c t="s" s="2" r="F107">
-        <v>647</v>
+        <v>699</v>
+      </c>
+      <c t="s" s="3" r="F107">
+        <v>700</v>
       </c>
       <c s="1" r="G107">
         <v>49691.0</v>
       </c>
-      <c t="s" s="2" r="H107">
-        <v>648</v>
-      </c>
-      <c t="str" r="I107">
+      <c t="s" s="3" r="H107">
+        <v>701</v>
+      </c>
+      <c t="str" s="2" r="I107">
         <f t="shared" si="3"/>
         <v>STB</v>
       </c>
     </row>
-    <row r="108">
+    <row customHeight="1" r="108" ht="15.75">
       <c t="s" s="1" r="A108">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c s="1" r="B108">
         <v>98.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>650</v>
-      </c>
-      <c t="s" s="2" r="D108">
-        <v>651</v>
+        <v>703</v>
+      </c>
+      <c t="s" s="3" r="D108">
+        <v>704</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>652</v>
-      </c>
-      <c t="s" s="2" r="F108">
-        <v>653</v>
+        <v>705</v>
+      </c>
+      <c t="s" s="3" r="F108">
+        <v>706</v>
       </c>
       <c s="1" r="G108">
         <v>52633.0</v>
       </c>
-      <c t="s" s="2" r="H108">
-        <v>654</v>
-      </c>
-      <c t="str" r="I108">
+      <c t="s" s="3" r="H108">
+        <v>707</v>
+      </c>
+      <c t="str" s="2" r="I108">
         <f t="shared" si="3"/>
         <v>NCPC</v>
       </c>
     </row>
-    <row r="109">
-      <c t="s" s="7" r="A109">
-        <v>655</v>
-      </c>
-      <c s="7" r="B109">
+    <row customHeight="1" r="109" ht="15.75">
+      <c t="s" s="8" r="A109">
+        <v>708</v>
+      </c>
+      <c s="8" r="B109">
         <v>89.0</v>
       </c>
-      <c t="s" s="7" r="C109">
-        <v>656</v>
-      </c>
-      <c t="s" s="7" r="D109">
-        <v>657</v>
-      </c>
-      <c t="s" s="7" r="E109">
-        <v>658</v>
-      </c>
-      <c t="s" s="8" r="F109">
-        <v>659</v>
-      </c>
-      <c s="9" r="G109">
+      <c t="s" s="8" r="C109">
+        <v>709</v>
+      </c>
+      <c t="s" s="8" r="D109">
+        <v>710</v>
+      </c>
+      <c t="s" s="8" r="E109">
+        <v>711</v>
+      </c>
+      <c t="s" s="9" r="F109">
+        <v>712</v>
+      </c>
+      <c s="10" r="G109">
         <v>49618.0</v>
       </c>
-      <c t="s" s="8" r="H109">
-        <v>660</v>
-      </c>
-      <c t="s" s="9" r="I109">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="110">
+      <c t="s" s="9" r="H109">
+        <v>713</v>
+      </c>
+      <c t="s" s="10" r="I109">
+        <v>714</v>
+      </c>
+    </row>
+    <row customHeight="1" r="110" ht="15.75">
       <c t="s" s="1" r="A110">
-        <v>662</v>
+        <v>715</v>
       </c>
       <c s="1" r="B110">
         <v>136.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>663</v>
-      </c>
-      <c t="s" s="2" r="D110">
-        <v>664</v>
+        <v>716</v>
+      </c>
+      <c t="s" s="3" r="D110">
+        <v>717</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>665</v>
-      </c>
-      <c t="s" s="2" r="F110">
-        <v>666</v>
+        <v>718</v>
+      </c>
+      <c t="s" s="3" r="F110">
+        <v>719</v>
       </c>
       <c s="1" r="G110">
         <v>49013.0</v>
       </c>
-      <c t="s" s="2" r="H110">
-        <v>667</v>
-      </c>
-      <c t="str" r="I110">
+      <c t="s" s="3" r="H110">
+        <v>720</v>
+      </c>
+      <c t="str" s="2" r="I110">
         <f ref="I110:I115" t="shared" si="4">iferror(iferror(REGEXEXTRACT(C110,"\((\w+)\)"),REGEXEXTRACT(E110,"\((\w+)\)")),"")</f>
         <v>CPSC</v>
       </c>
     </row>
-    <row r="111">
+    <row customHeight="1" r="111" ht="15.75">
       <c t="s" s="1" r="A111">
-        <v>668</v>
+        <v>721</v>
       </c>
       <c s="1" r="B111">
         <v>94.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>669</v>
+        <v>722</v>
       </c>
       <c t="s" s="1" r="D111">
-        <v>670</v>
+        <v>723</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>671</v>
-      </c>
-      <c t="s" s="2" r="F111">
-        <v>672</v>
+        <v>724</v>
+      </c>
+      <c t="s" s="3" r="F111">
+        <v>725</v>
       </c>
       <c s="1" r="G111">
         <v>52630.0</v>
       </c>
-      <c t="s" s="2" r="H111">
-        <v>673</v>
-      </c>
-      <c t="str" r="I111">
+      <c t="s" s="3" r="H111">
+        <v>726</v>
+      </c>
+      <c t="str" s="2" r="I111">
         <f t="shared" si="4"/>
         <v>MSPB</v>
       </c>
     </row>
-    <row r="112">
+    <row customHeight="1" r="112" ht="15.75">
       <c t="s" s="1" r="A112">
-        <v>674</v>
+        <v>727</v>
       </c>
       <c s="1" r="B112">
         <v>28.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>675</v>
-      </c>
-      <c t="s" s="2" r="D112">
-        <v>676</v>
+        <v>728</v>
+      </c>
+      <c t="s" s="3" r="D112">
+        <v>729</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>677</v>
-      </c>
-      <c t="s" s="2" r="F112">
-        <v>678</v>
+        <v>730</v>
+      </c>
+      <c t="s" s="3" r="F112">
+        <v>731</v>
       </c>
       <c s="1" r="G112">
         <v>49517.0</v>
       </c>
-      <c t="s" s="2" r="H112">
-        <v>679</v>
-      </c>
-      <c t="str" r="I112">
+      <c t="s" s="3" r="H112">
+        <v>732</v>
+      </c>
+      <c t="str" s="2" r="I112">
         <f t="shared" si="4"/>
         <v>NIST</v>
       </c>
     </row>
-    <row r="113">
+    <row customHeight="1" r="113" ht="15.75">
       <c t="s" s="1" r="A113">
-        <v>680</v>
+        <v>733</v>
       </c>
       <c s="1" r="B113">
         <v>103.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>681</v>
-      </c>
-      <c t="s" s="2" r="D113">
-        <v>682</v>
+        <v>734</v>
+      </c>
+      <c t="s" s="3" r="D113">
+        <v>735</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>683</v>
-      </c>
-      <c t="s" s="2" r="F113">
-        <v>684</v>
+        <v>736</v>
+      </c>
+      <c t="s" s="3" r="F113">
+        <v>737</v>
       </c>
       <c s="1" r="G113">
         <v>49523.0</v>
       </c>
-      <c t="s" s="2" r="H113">
-        <v>685</v>
-      </c>
-      <c t="str" r="I113">
+      <c t="s" s="3" r="H113">
+        <v>738</v>
+      </c>
+      <c t="str" s="2" r="I113">
         <f t="shared" si="4"/>
         <v>NLRB</v>
       </c>
     </row>
-    <row r="114">
+    <row customHeight="1" r="114" ht="15.75">
       <c t="s" s="1" r="A114">
-        <v>686</v>
+        <v>739</v>
       </c>
       <c s="1" r="B114">
         <v>63.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>687</v>
-      </c>
-      <c t="s" s="2" r="D114">
-        <v>688</v>
+        <v>740</v>
+      </c>
+      <c t="s" s="3" r="D114">
+        <v>741</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>689</v>
-      </c>
-      <c t="s" s="2" r="F114">
-        <v>690</v>
+        <v>742</v>
+      </c>
+      <c t="s" s="3" r="F114">
+        <v>743</v>
       </c>
       <c s="1" r="G114">
         <v>49041.0</v>
       </c>
-      <c t="s" s="2" r="H114">
-        <v>691</v>
-      </c>
-      <c t="str" r="I114">
+      <c t="s" s="3" r="H114">
+        <v>744</v>
+      </c>
+      <c t="str" s="2" r="I114">
         <f t="shared" si="4"/>
         <v>FCC</v>
       </c>
     </row>
-    <row r="115">
+    <row customHeight="1" r="115" ht="15.75">
       <c t="s" s="1" r="A115">
-        <v>692</v>
+        <v>745</v>
       </c>
       <c s="1" r="B115">
         <v>95.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>693</v>
+        <v>746</v>
       </c>
       <c t="s" s="1" r="D115">
-        <v>694</v>
+        <v>747</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>695</v>
-      </c>
-      <c t="s" s="2" r="F115">
-        <v>696</v>
+        <v>748</v>
+      </c>
+      <c t="s" s="3" r="F115">
+        <v>749</v>
       </c>
       <c s="1" r="G115">
         <v>49483.0</v>
       </c>
-      <c t="s" s="2" r="H115">
-        <v>697</v>
-      </c>
-      <c t="str" r="I115">
+      <c t="s" s="3" r="H115">
+        <v>750</v>
+      </c>
+      <c t="str" s="2" r="I115">
         <f t="shared" si="4"/>
         <v>NARA</v>
       </c>
     </row>
-    <row r="116">
-      <c t="s" s="3" r="A116">
-        <v>698</v>
-      </c>
-      <c s="3" r="B116">
+    <row customHeight="1" r="116" ht="15.75">
+      <c t="s" s="4" r="A116">
+        <v>751</v>
+      </c>
+      <c s="4" r="B116">
         <v>75.0</v>
       </c>
-      <c t="s" s="3" r="C116">
-        <v>699</v>
-      </c>
-      <c t="s" s="4" r="D116">
-        <v>700</v>
-      </c>
-      <c t="s" s="3" r="E116">
-        <v>701</v>
-      </c>
-      <c t="s" s="4" r="F116">
-        <v>702</v>
-      </c>
-      <c s="3" r="G116">
+      <c t="s" s="4" r="C116">
+        <v>752</v>
+      </c>
+      <c t="s" s="5" r="D116">
+        <v>753</v>
+      </c>
+      <c t="s" s="4" r="E116">
+        <v>754</v>
+      </c>
+      <c t="s" s="5" r="F116">
+        <v>755</v>
+      </c>
+      <c s="4" r="G116">
         <v>49046.0</v>
       </c>
-      <c t="s" s="4" r="H116">
-        <v>703</v>
-      </c>
-      <c t="s" s="3" r="I116">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="117">
+      <c t="s" s="5" r="H116">
+        <v>756</v>
+      </c>
+      <c t="s" s="4" r="I116">
+        <v>757</v>
+      </c>
+    </row>
+    <row customHeight="1" r="117" ht="15.75">
       <c t="s" s="1" r="A117">
-        <v>705</v>
+        <v>758</v>
       </c>
       <c s="1" r="B117">
         <v>54.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>706</v>
-      </c>
-      <c t="s" s="2" r="D117">
-        <v>707</v>
+        <v>759</v>
+      </c>
+      <c t="s" s="3" r="D117">
+        <v>760</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>708</v>
-      </c>
-      <c t="s" s="2" r="F117">
-        <v>709</v>
+        <v>761</v>
+      </c>
+      <c t="s" s="3" r="F117">
+        <v>762</v>
       </c>
       <c s="1" r="G117">
         <v>49451.0</v>
       </c>
-      <c t="s" s="2" r="H117">
-        <v>710</v>
-      </c>
-      <c t="str" r="I117">
+      <c t="s" s="3" r="H117">
+        <v>763</v>
+      </c>
+      <c t="str" s="2" r="I117">
         <f ref="I117:I128" t="shared" si="5">iferror(iferror(REGEXEXTRACT(C117,"\((\w+)\)"),REGEXEXTRACT(E117,"\((\w+)\)")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="118">
+    <row customHeight="1" r="118" ht="15.75">
       <c t="s" s="1" r="A118">
-        <v>711</v>
+        <v>764</v>
       </c>
       <c s="1" r="B118">
         <v>32.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>712</v>
+        <v>765</v>
       </c>
       <c t="s" s="1" r="D118">
-        <v>713</v>
+        <v>766</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>714</v>
-      </c>
-      <c t="s" s="2" r="F118">
-        <v>715</v>
+        <v>767</v>
+      </c>
+      <c t="s" s="3" r="F118">
+        <v>768</v>
       </c>
       <c s="1" r="G118">
         <v>49229.0</v>
       </c>
-      <c t="s" s="2" r="H118">
-        <v>716</v>
-      </c>
-      <c t="str" r="I118">
+      <c t="s" s="3" r="H118">
+        <v>769</v>
+      </c>
+      <c t="str" s="2" r="I118">
         <f t="shared" si="5"/>
         <v>DOD</v>
       </c>
     </row>
-    <row r="119">
+    <row customHeight="1" r="119" ht="15.75">
       <c t="s" s="1" r="A119">
-        <v>717</v>
+        <v>770</v>
       </c>
       <c s="1" r="B119">
         <v>22.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>718</v>
-      </c>
-      <c t="s" s="2" r="D119">
-        <v>719</v>
+        <v>771</v>
+      </c>
+      <c t="s" s="3" r="D119">
+        <v>772</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>720</v>
-      </c>
-      <c t="s" s="2" r="F119">
-        <v>721</v>
+        <v>773</v>
+      </c>
+      <c t="s" s="3" r="F119">
+        <v>774</v>
       </c>
       <c s="1" r="G119">
         <v>49660.0</v>
       </c>
-      <c t="s" s="2" r="H119">
-        <v>722</v>
-      </c>
-      <c t="str" r="I119">
+      <c t="s" s="3" r="H119">
+        <v>775</v>
+      </c>
+      <c t="str" s="2" r="I119">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="120">
+    <row customHeight="1" r="120" ht="15.75">
       <c t="s" s="1" r="A120">
-        <v>723</v>
+        <v>776</v>
       </c>
       <c s="1" r="B120">
         <v>40.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>724</v>
-      </c>
-      <c t="s" s="2" r="D120">
-        <v>725</v>
+        <v>777</v>
+      </c>
+      <c t="s" s="3" r="D120">
+        <v>778</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>726</v>
-      </c>
-      <c t="s" s="2" r="F120">
-        <v>727</v>
+        <v>779</v>
+      </c>
+      <c t="s" s="3" r="F120">
+        <v>780</v>
       </c>
       <c s="1" r="G120">
         <v>49117.0</v>
       </c>
-      <c t="s" s="2" r="H120">
-        <v>728</v>
-      </c>
-      <c t="str" r="I120">
+      <c t="s" s="3" r="H120">
+        <v>781</v>
+      </c>
+      <c t="str" s="2" r="I120">
         <f t="shared" si="5"/>
         <v>BIA</v>
       </c>
     </row>
-    <row r="121">
+    <row customHeight="1" r="121" ht="15.75">
       <c t="s" s="1" r="A121">
-        <v>729</v>
+        <v>782</v>
       </c>
       <c s="1" r="B121">
         <v>100.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>730</v>
-      </c>
-      <c t="s" s="2" r="D121">
-        <v>731</v>
+        <v>783</v>
+      </c>
+      <c t="s" s="3" r="D121">
+        <v>784</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>732</v>
-      </c>
-      <c t="s" s="2" r="F121">
-        <v>733</v>
+        <v>785</v>
+      </c>
+      <c t="s" s="3" r="F121">
+        <v>786</v>
       </c>
       <c s="1" r="G121">
         <v>52634.0</v>
       </c>
-      <c t="s" s="2" r="H121">
-        <v>734</v>
-      </c>
-      <c t="str" r="I121">
+      <c t="s" s="3" r="H121">
+        <v>787</v>
+      </c>
+      <c t="str" s="2" r="I121">
         <f t="shared" si="5"/>
         <v>NEA</v>
       </c>
     </row>
-    <row r="122">
+    <row customHeight="1" r="122" ht="15.75">
       <c t="s" s="1" r="A122">
-        <v>735</v>
+        <v>788</v>
       </c>
       <c s="1" r="B122">
         <v>36.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>736</v>
-      </c>
-      <c t="s" s="2" r="D122">
-        <v>737</v>
+        <v>789</v>
+      </c>
+      <c t="s" s="3" r="D122">
+        <v>790</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>738</v>
-      </c>
-      <c t="s" s="2" r="F122">
-        <v>739</v>
+        <v>791</v>
+      </c>
+      <c t="s" s="3" r="F122">
+        <v>792</v>
       </c>
       <c s="1" r="G122">
         <v>49546.0</v>
       </c>
-      <c t="s" s="2" r="H122">
-        <v>740</v>
-      </c>
-      <c t="str" r="I122">
+      <c t="s" s="3" r="H122">
+        <v>793</v>
+      </c>
+      <c t="str" s="2" r="I122">
         <f t="shared" si="5"/>
         <v>NSA</v>
       </c>
     </row>
-    <row r="123">
+    <row customHeight="1" r="123" ht="15.75">
       <c t="s" s="1" r="A123">
-        <v>741</v>
+        <v>794</v>
       </c>
       <c s="1" r="B123">
         <v>5.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>742</v>
-      </c>
-      <c t="s" s="2" r="D123">
-        <v>743</v>
+        <v>795</v>
+      </c>
+      <c t="s" s="3" r="D123">
+        <v>796</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>744</v>
-      </c>
-      <c t="s" s="2" r="F123">
-        <v>745</v>
+        <v>797</v>
+      </c>
+      <c t="s" s="3" r="F123">
+        <v>798</v>
       </c>
       <c s="1" r="G123">
         <v>49181.0</v>
       </c>
-      <c t="s" s="2" r="H123">
-        <v>746</v>
-      </c>
-      <c t="str" r="I123">
+      <c t="s" s="3" r="H123">
+        <v>799</v>
+      </c>
+      <c t="str" s="2" r="I123">
         <f t="shared" si="5"/>
         <v>CEQ</v>
       </c>
     </row>
-    <row r="124">
+    <row customHeight="1" r="124" ht="15.75">
       <c t="s" s="1" r="A124">
-        <v>747</v>
+        <v>800</v>
       </c>
       <c s="1" r="B124">
         <v>43.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>748</v>
-      </c>
-      <c t="s" s="2" r="D124">
-        <v>749</v>
+        <v>801</v>
+      </c>
+      <c t="s" s="3" r="D124">
+        <v>802</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>750</v>
-      </c>
-      <c t="s" s="2" r="F124">
-        <v>751</v>
+        <v>803</v>
+      </c>
+      <c t="s" s="3" r="F124">
+        <v>804</v>
       </c>
       <c s="1" r="G124">
         <v>49128.0</v>
       </c>
-      <c t="s" s="2" r="H124">
-        <v>752</v>
-      </c>
-      <c t="str" r="I124">
+      <c t="s" s="3" r="H124">
+        <v>805</v>
+      </c>
+      <c t="str" s="2" r="I124">
         <f t="shared" si="5"/>
         <v>USBR</v>
       </c>
     </row>
-    <row r="125">
+    <row customHeight="1" r="125" ht="15.75">
       <c t="s" s="1" r="A125">
-        <v>753</v>
+        <v>806</v>
       </c>
       <c s="1" r="B125">
         <v>151.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>754</v>
-      </c>
-      <c t="s" s="2" r="D125">
-        <v>755</v>
+        <v>807</v>
+      </c>
+      <c t="s" s="3" r="D125">
+        <v>808</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>756</v>
-      </c>
-      <c t="s" s="2" r="F125">
-        <v>757</v>
+        <v>809</v>
+      </c>
+      <c t="s" s="3" r="F125">
+        <v>810</v>
       </c>
       <c s="1" r="G125">
         <v>52645.0</v>
       </c>
-      <c t="s" s="2" r="H125">
-        <v>758</v>
-      </c>
-      <c t="str" r="I125">
+      <c t="s" s="3" r="H125">
+        <v>811</v>
+      </c>
+      <c t="str" s="2" r="I125">
         <f t="shared" si="5"/>
         <v>NRC</v>
       </c>
     </row>
-    <row r="126">
+    <row customHeight="1" r="126" ht="15.75">
       <c t="s" s="1" r="A126">
-        <v>759</v>
+        <v>812</v>
       </c>
       <c s="1" r="B126">
         <v>55.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>760</v>
+        <v>813</v>
       </c>
       <c t="s" s="1" r="D126">
-        <v>761</v>
+        <v>814</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>762</v>
-      </c>
-      <c t="s" s="2" r="F126">
-        <v>763</v>
+        <v>815</v>
+      </c>
+      <c t="s" s="3" r="F126">
+        <v>816</v>
       </c>
       <c s="1" r="G126">
         <v>49035.0</v>
       </c>
-      <c t="s" s="2" r="H126">
-        <v>764</v>
-      </c>
-      <c t="str" r="I126">
+      <c t="s" s="3" r="H126">
+        <v>817</v>
+      </c>
+      <c t="str" s="2" r="I126">
         <f t="shared" si="5"/>
         <v>DOT</v>
       </c>
     </row>
-    <row r="127">
+    <row customHeight="1" r="127" ht="15.75">
       <c t="s" s="1" r="A127">
-        <v>765</v>
+        <v>818</v>
       </c>
       <c s="1" r="B127">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>766</v>
-      </c>
-      <c t="s" s="2" r="D127">
-        <v>767</v>
+        <v>819</v>
+      </c>
+      <c t="s" s="3" r="D127">
+        <v>820</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>768</v>
-      </c>
-      <c t="s" s="2" r="F127">
-        <v>769</v>
+        <v>821</v>
+      </c>
+      <c t="s" s="3" r="F127">
+        <v>822</v>
       </c>
       <c s="1" r="G127">
         <v>52584.0</v>
       </c>
-      <c t="s" s="2" r="H127">
-        <v>770</v>
-      </c>
-      <c t="str" r="I127">
+      <c t="s" s="3" r="H127">
+        <v>823</v>
+      </c>
+      <c t="str" s="2" r="I127">
         <f t="shared" si="5"/>
         <v>ABMC</v>
       </c>
     </row>
-    <row r="128">
+    <row customHeight="1" r="128" ht="15.75">
       <c t="s" s="1" r="A128">
-        <v>771</v>
+        <v>824</v>
       </c>
       <c s="1" r="B128">
         <v>44.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>772</v>
-      </c>
-      <c t="s" s="2" r="D128">
-        <v>773</v>
+        <v>825</v>
+      </c>
+      <c t="s" s="3" r="D128">
+        <v>826</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>774</v>
-      </c>
-      <c t="s" s="2" r="F128">
-        <v>775</v>
+        <v>827</v>
+      </c>
+      <c t="s" s="3" r="F128">
+        <v>828</v>
       </c>
       <c s="1" r="G128">
         <v>85146.0</v>
       </c>
-      <c t="s" s="2" r="H128">
-        <v>776</v>
-      </c>
-      <c t="str" r="I128">
+      <c t="s" s="3" r="H128">
+        <v>829</v>
+      </c>
+      <c t="str" s="2" r="I128">
         <f t="shared" si="5"/>
         <v>BSEE</v>
       </c>
     </row>
-    <row r="129">
+    <row customHeight="1" r="129" ht="15.75">
       <c t="s" s="1" r="A129">
-        <v>777</v>
+        <v>830</v>
       </c>
       <c s="1" r="B129">
         <v>119.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>778</v>
+        <v>831</v>
       </c>
       <c t="s" s="1" r="D129">
-        <v>779</v>
+        <v>832</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>780</v>
-      </c>
-      <c t="s" s="2" r="F129">
-        <v>781</v>
+        <v>833</v>
+      </c>
+      <c t="s" s="3" r="F129">
+        <v>834</v>
       </c>
       <c s="1" r="G129">
         <v>52652.0</v>
       </c>
-      <c t="s" s="2" r="H129">
-        <v>782</v>
+      <c t="s" s="3" r="H129">
+        <v>835</v>
       </c>
       <c t="s" s="1" r="I129">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>836</v>
+      </c>
+    </row>
+    <row customHeight="1" r="130" ht="15.75">
       <c t="s" s="1" r="A130">
-        <v>784</v>
+        <v>837</v>
       </c>
       <c s="1" r="B130">
         <v>117.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>785</v>
-      </c>
-      <c t="s" s="2" r="D130">
-        <v>786</v>
+        <v>838</v>
+      </c>
+      <c t="s" s="3" r="D130">
+        <v>839</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>787</v>
-      </c>
-      <c t="s" s="2" r="F130">
-        <v>788</v>
+        <v>840</v>
+      </c>
+      <c t="s" s="3" r="F130">
+        <v>841</v>
       </c>
       <c s="1" r="G130">
         <v>49590.0</v>
       </c>
-      <c t="s" s="2" r="H130">
-        <v>789</v>
-      </c>
-      <c t="str" r="I130">
+      <c t="s" s="3" r="H130">
+        <v>842</v>
+      </c>
+      <c t="str" s="2" r="I130">
         <f ref="I130:I135" t="shared" si="6">iferror(iferror(REGEXEXTRACT(C130,"\((\w+)\)"),REGEXEXTRACT(E130,"\((\w+)\)")),"")</f>
         <v>OSTP</v>
       </c>
     </row>
-    <row r="131">
+    <row customHeight="1" r="131" ht="15.75">
       <c t="s" s="1" r="A131">
-        <v>790</v>
+        <v>843</v>
       </c>
       <c s="1" r="B131">
         <v>57.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>791</v>
-      </c>
-      <c t="s" s="2" r="D131">
-        <v>792</v>
+        <v>844</v>
+      </c>
+      <c t="s" s="3" r="D131">
+        <v>845</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>793</v>
-      </c>
-      <c t="s" s="2" r="F131">
-        <v>794</v>
+        <v>846</v>
+      </c>
+      <c t="s" s="3" r="F131">
+        <v>847</v>
       </c>
       <c s="1" r="G131">
         <v>48081.0</v>
       </c>
-      <c t="s" s="2" r="H131">
-        <v>795</v>
-      </c>
-      <c t="str" r="I131">
+      <c t="s" s="3" r="H131">
+        <v>848</v>
+      </c>
+      <c t="str" s="2" r="I131">
         <f t="shared" si="6"/>
         <v>NHTSA</v>
       </c>
     </row>
-    <row r="132">
+    <row customHeight="1" r="132" ht="15.75">
       <c t="s" s="1" r="A132">
-        <v>796</v>
+        <v>849</v>
       </c>
       <c s="1" r="B132">
         <v>13.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>797</v>
-      </c>
-      <c t="s" s="2" r="D132">
-        <v>798</v>
+        <v>850</v>
+      </c>
+      <c t="s" s="3" r="D132">
+        <v>851</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>799</v>
-      </c>
-      <c t="s" s="2" r="F132">
-        <v>800</v>
+        <v>852</v>
+      </c>
+      <c t="s" s="3" r="F132">
+        <v>853</v>
       </c>
       <c s="1" r="G132">
         <v>52591.0</v>
       </c>
-      <c t="s" s="2" r="H132">
-        <v>801</v>
-      </c>
-      <c t="str" r="I132">
+      <c t="s" s="3" r="H132">
+        <v>854</v>
+      </c>
+      <c t="str" s="2" r="I132">
         <f t="shared" si="6"/>
         <v>CSB</v>
       </c>
     </row>
-    <row r="133">
+    <row customHeight="1" r="133" ht="15.75">
       <c t="s" s="1" r="A133">
-        <v>802</v>
+        <v>855</v>
       </c>
       <c s="1" r="B133">
         <v>41.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>803</v>
-      </c>
-      <c t="s" s="2" r="D133">
-        <v>804</v>
+        <v>856</v>
+      </c>
+      <c t="s" s="3" r="D133">
+        <v>857</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>805</v>
-      </c>
-      <c t="s" s="2" r="F133">
-        <v>806</v>
+        <v>858</v>
+      </c>
+      <c t="s" s="3" r="F133">
+        <v>859</v>
       </c>
       <c s="1" r="G133">
         <v>49125.0</v>
       </c>
-      <c t="s" s="2" r="H133">
-        <v>807</v>
-      </c>
-      <c t="str" r="I133">
+      <c t="s" s="3" r="H133">
+        <v>860</v>
+      </c>
+      <c t="str" s="2" r="I133">
         <f t="shared" si="6"/>
         <v>BLM</v>
       </c>
     </row>
-    <row r="134">
+    <row customHeight="1" r="134" ht="15.75">
       <c t="s" s="1" r="A134">
-        <v>808</v>
+        <v>861</v>
       </c>
       <c s="1" r="B134">
         <v>30.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>809</v>
-      </c>
-      <c t="s" s="2" r="D134">
-        <v>810</v>
+        <v>862</v>
+      </c>
+      <c t="s" s="3" r="D134">
+        <v>863</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>811</v>
-      </c>
-      <c t="s" s="2" r="F134">
-        <v>812</v>
+        <v>864</v>
+      </c>
+      <c t="s" s="3" r="F134">
+        <v>865</v>
       </c>
       <c s="1" r="G134">
         <v>49530.0</v>
       </c>
-      <c t="s" s="2" r="H134">
-        <v>813</v>
-      </c>
-      <c t="str" r="I134">
+      <c t="s" s="3" r="H134">
+        <v>866</v>
+      </c>
+      <c t="str" s="2" r="I134">
         <f t="shared" si="6"/>
         <v>NOAA</v>
       </c>
     </row>
-    <row r="135">
+    <row customHeight="1" r="135" ht="15.75">
       <c t="s" s="1" r="A135">
-        <v>814</v>
+        <v>867</v>
       </c>
       <c s="1" r="B135">
         <v>140.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>815</v>
-      </c>
-      <c t="s" s="2" r="D135">
-        <v>816</v>
+        <v>868</v>
+      </c>
+      <c t="s" s="3" r="D135">
+        <v>869</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>817</v>
-      </c>
-      <c t="s" s="2" r="F135">
-        <v>818</v>
+        <v>870</v>
+      </c>
+      <c t="s" s="3" r="F135">
+        <v>871</v>
       </c>
       <c s="1" r="G135">
         <v>48029.0</v>
       </c>
-      <c t="s" s="2" r="H135">
-        <v>819</v>
-      </c>
-      <c t="str" r="I135">
+      <c t="s" s="3" r="H135">
+        <v>872</v>
+      </c>
+      <c t="str" s="2" r="I135">
         <f t="shared" si="6"/>
         <v>EBSA</v>
       </c>
     </row>
-    <row r="136">
-      <c t="s" s="3" r="A136">
-        <v>820</v>
-      </c>
-      <c s="3" r="B136">
+    <row customHeight="1" r="136" ht="15.75">
+      <c t="s" s="4" r="A136">
+        <v>873</v>
+      </c>
+      <c s="4" r="B136">
         <v>9.0</v>
       </c>
-      <c t="s" s="3" r="C136">
-        <v>821</v>
-      </c>
-      <c t="s" s="4" r="D136">
-        <v>822</v>
-      </c>
-      <c t="s" s="3" r="E136">
-        <v>823</v>
-      </c>
-      <c t="s" s="4" r="F136">
-        <v>824</v>
-      </c>
-      <c s="3" r="G136">
+      <c t="s" s="4" r="C136">
+        <v>874</v>
+      </c>
+      <c t="s" s="5" r="D136">
+        <v>875</v>
+      </c>
+      <c t="s" s="4" r="E136">
+        <v>876</v>
+      </c>
+      <c t="s" s="5" r="F136">
+        <v>877</v>
+      </c>
+      <c s="4" r="G136">
         <v>91390.0</v>
       </c>
-      <c s="10" r="H136"/>
-      <c t="s" s="3" r="I136">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="137">
+      <c s="4" r="H136"/>
+      <c t="s" s="4" r="I136">
+        <v>878</v>
+      </c>
+    </row>
+    <row customHeight="1" r="137" ht="15.75">
       <c t="s" s="1" r="A137">
-        <v>826</v>
+        <v>879</v>
       </c>
       <c s="1" r="B137">
         <v>12.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>827</v>
-      </c>
-      <c t="s" s="2" r="D137">
-        <v>828</v>
+        <v>880</v>
+      </c>
+      <c t="s" s="3" r="D137">
+        <v>881</v>
       </c>
       <c t="s" s="11" r="E137">
-        <v>829</v>
-      </c>
-      <c t="s" s="2" r="F137">
-        <v>830</v>
+        <v>882</v>
+      </c>
+      <c t="s" s="3" r="F137">
+        <v>883</v>
       </c>
       <c s="1" r="G137">
         <v>49157.0</v>
       </c>
-      <c t="str" r="I137">
+      <c s="2" r="H137"/>
+      <c t="str" s="2" r="I137">
         <f ref="I137:I153" t="shared" si="7">iferror(iferror(REGEXEXTRACT(C137,"\((\w+)\)"),REGEXEXTRACT(E137,"\((\w+)\)")),"")</f>
         <v>CPPBSD</v>
       </c>
     </row>
-    <row r="138">
+    <row customHeight="1" r="138" ht="15.75">
       <c t="s" s="1" r="A138">
-        <v>831</v>
+        <v>884</v>
       </c>
       <c s="1" r="B138">
         <v>14.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>832</v>
-      </c>
-      <c t="s" s="2" r="D138">
-        <v>833</v>
+        <v>885</v>
+      </c>
+      <c t="s" s="3" r="D138">
+        <v>886</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>834</v>
-      </c>
-      <c t="s" s="2" r="F138">
-        <v>835</v>
+        <v>887</v>
+      </c>
+      <c t="s" s="3" r="F138">
+        <v>888</v>
       </c>
       <c s="1" r="G138">
         <v>49191.0</v>
       </c>
-      <c t="str" r="I138">
+      <c s="2" r="H138"/>
+      <c t="str" s="2" r="I138">
         <f t="shared" si="7"/>
         <v>CSOSA</v>
       </c>
     </row>
-    <row r="139">
+    <row customHeight="1" r="139" ht="15.75">
       <c t="s" s="1" r="A139">
-        <v>836</v>
+        <v>889</v>
       </c>
       <c s="1" r="B139">
         <v>18.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>837</v>
-      </c>
-      <c t="s" s="2" r="D139">
-        <v>838</v>
+        <v>890</v>
+      </c>
+      <c t="s" s="3" r="D139">
+        <v>891</v>
       </c>
       <c t="s" s="12" r="E139">
-        <v>839</v>
-      </c>
-      <c t="s" s="2" r="F139">
-        <v>840</v>
+        <v>892</v>
+      </c>
+      <c t="s" s="3" r="F139">
+        <v>893</v>
       </c>
       <c s="1" r="G139">
         <v>55927.0</v>
       </c>
-      <c t="str" r="I139">
+      <c s="2" r="H139"/>
+      <c t="str" s="2" r="I139">
         <f t="shared" si="7"/>
         <v>CBP</v>
       </c>
     </row>
-    <row r="140">
+    <row customHeight="1" r="140" ht="15.75">
       <c t="s" s="1" r="A140">
-        <v>841</v>
+        <v>894</v>
       </c>
       <c s="1" r="B140">
         <v>21.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>842</v>
-      </c>
-      <c t="s" s="2" r="D140">
-        <v>843</v>
+        <v>895</v>
+      </c>
+      <c t="s" s="3" r="D140">
+        <v>896</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>844</v>
-      </c>
-      <c t="s" s="2" r="F140">
-        <v>845</v>
+        <v>897</v>
+      </c>
+      <c t="s" s="3" r="F140">
+        <v>898</v>
       </c>
       <c s="1" r="G140">
         <v>49711.0</v>
       </c>
-      <c t="str" r="I140">
+      <c s="2" r="H140"/>
+      <c t="str" s="2" r="I140">
         <f t="shared" si="7"/>
         <v>ICE</v>
       </c>
     </row>
-    <row r="141">
+    <row customHeight="1" r="141" ht="15.75">
       <c t="s" s="1" r="A141">
-        <v>846</v>
+        <v>899</v>
       </c>
       <c s="1" r="B141">
         <v>25.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>847</v>
-      </c>
-      <c t="s" s="2" r="D141">
-        <v>848</v>
+        <v>900</v>
+      </c>
+      <c t="s" s="3" r="D141">
+        <v>901</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>849</v>
-      </c>
-      <c t="s" s="2" r="F141">
-        <v>850</v>
+        <v>902</v>
+      </c>
+      <c t="s" s="3" r="F141">
+        <v>903</v>
       </c>
       <c s="1" r="G141">
         <v>48005.0</v>
       </c>
-      <c t="str" r="I141">
+      <c s="2" r="H141"/>
+      <c t="str" s="2" r="I141">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142">
+    <row customHeight="1" r="142" ht="15.75">
       <c t="s" s="1" r="A142">
-        <v>851</v>
+        <v>904</v>
       </c>
       <c s="1" r="B142">
         <v>33.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>852</v>
-      </c>
-      <c t="s" s="2" r="D142">
-        <v>853</v>
+        <v>905</v>
+      </c>
+      <c t="s" s="3" r="D142">
+        <v>906</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>854</v>
-      </c>
-      <c t="s" s="2" r="F142">
-        <v>855</v>
+        <v>907</v>
+      </c>
+      <c t="s" s="3" r="F142">
+        <v>908</v>
       </c>
       <c t="s" s="1" r="G142">
-        <v>856</v>
+        <v>909</v>
       </c>
       <c t="s" s="1" r="H142">
-        <v>857</v>
-      </c>
-      <c t="str" r="I142">
+        <v>910</v>
+      </c>
+      <c t="str" s="2" r="I142">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143">
+    <row customHeight="1" r="143" ht="15.75">
       <c t="s" s="1" r="A143">
-        <v>858</v>
+        <v>911</v>
       </c>
       <c s="1" r="B143">
         <v>48.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>859</v>
-      </c>
-      <c t="s" s="2" r="D143">
-        <v>860</v>
+        <v>912</v>
+      </c>
+      <c t="s" s="3" r="D143">
+        <v>913</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>861</v>
-      </c>
-      <c t="s" s="2" r="F143">
-        <v>862</v>
-      </c>
-      <c t="str" r="I143">
+        <v>914</v>
+      </c>
+      <c t="s" s="3" r="F143">
+        <v>915</v>
+      </c>
+      <c s="2" r="H143"/>
+      <c t="str" s="2" r="I143">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144">
+    <row customHeight="1" r="144" ht="15.75">
       <c t="s" s="1" r="A144">
-        <v>863</v>
+        <v>916</v>
       </c>
       <c s="1" r="B144">
         <v>61.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>864</v>
-      </c>
-      <c t="s" s="2" r="D144">
-        <v>865</v>
+        <v>917</v>
+      </c>
+      <c t="s" s="3" r="D144">
+        <v>918</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>866</v>
-      </c>
-      <c t="s" s="2" r="F144">
-        <v>867</v>
+        <v>919</v>
+      </c>
+      <c t="s" s="3" r="F144">
+        <v>920</v>
       </c>
       <c s="1" r="G144">
         <v>52603.0</v>
       </c>
-      <c t="str" r="I144">
+      <c s="2" r="H144"/>
+      <c t="str" s="2" r="I144">
         <f t="shared" si="7"/>
         <v>EXIM</v>
       </c>
     </row>
-    <row r="145">
+    <row customHeight="1" r="145" ht="15.75">
       <c t="s" s="1" r="A145">
-        <v>868</v>
+        <v>921</v>
       </c>
       <c s="1" r="B145">
         <v>74.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>869</v>
-      </c>
-      <c t="s" s="2" r="D145">
-        <v>870</v>
+        <v>922</v>
+      </c>
+      <c t="s" s="3" r="D145">
+        <v>923</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>871</v>
-      </c>
-      <c t="s" s="2" r="F145">
-        <v>872</v>
-      </c>
-      <c t="str" r="I145">
+        <v>924</v>
+      </c>
+      <c t="s" s="3" r="F145">
+        <v>925</v>
+      </c>
+      <c s="2" r="H145"/>
+      <c t="str" s="2" r="I145">
         <f t="shared" si="7"/>
         <v>FOMC</v>
       </c>
     </row>
-    <row r="146">
+    <row customHeight="1" r="146" ht="15.75">
       <c t="s" s="1" r="A146">
-        <v>873</v>
+        <v>926</v>
       </c>
       <c s="1" r="B146">
         <v>80.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>874</v>
-      </c>
-      <c t="s" s="2" r="D146">
-        <v>875</v>
+        <v>927</v>
+      </c>
+      <c t="s" s="3" r="D146">
+        <v>928</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>876</v>
-      </c>
-      <c t="s" s="2" r="F146">
-        <v>877</v>
-      </c>
-      <c t="str" r="I146">
+        <v>929</v>
+      </c>
+      <c t="s" s="3" r="F146">
+        <v>930</v>
+      </c>
+      <c s="2" r="H146"/>
+      <c t="str" s="2" r="I146">
         <f t="shared" si="7"/>
         <v>ACL</v>
       </c>
     </row>
-    <row r="147">
+    <row customHeight="1" r="147" ht="15.75">
       <c t="s" s="1" r="A147">
-        <v>878</v>
+        <v>931</v>
       </c>
       <c s="1" r="B147">
         <v>83.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>879</v>
-      </c>
-      <c t="s" s="2" r="D147">
-        <v>880</v>
+        <v>932</v>
+      </c>
+      <c t="s" s="3" r="D147">
+        <v>933</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>881</v>
-      </c>
-      <c t="s" s="2" r="F147">
-        <v>882</v>
+        <v>934</v>
+      </c>
+      <c t="s" s="3" r="F147">
+        <v>935</v>
       </c>
       <c s="1" r="G147">
         <v>49134.0</v>
       </c>
-      <c t="str" r="I147">
+      <c s="2" r="H147"/>
+      <c t="str" s="2" r="I147">
         <f t="shared" si="7"/>
         <v>CMS</v>
       </c>
     </row>
-    <row r="148">
+    <row customHeight="1" r="148" ht="15.75">
       <c t="s" s="1" r="A148">
-        <v>883</v>
+        <v>936</v>
       </c>
       <c s="1" r="B148">
         <v>88.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>884</v>
-      </c>
-      <c t="s" s="2" r="D148">
-        <v>885</v>
+        <v>937</v>
+      </c>
+      <c t="s" s="3" r="D148">
+        <v>938</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>886</v>
-      </c>
-      <c t="s" s="2" r="F148">
-        <v>887</v>
+        <v>939</v>
+      </c>
+      <c t="s" s="3" r="F148">
+        <v>940</v>
       </c>
       <c s="1" r="G148">
         <v>49687.0</v>
       </c>
-      <c t="str" r="I148">
+      <c s="2" r="H148"/>
+      <c t="str" s="2" r="I148">
         <f t="shared" si="7"/>
         <v>SAMSHA</v>
       </c>
     </row>
-    <row r="149">
+    <row customHeight="1" r="149" ht="15.75">
       <c t="s" s="1" r="A149">
-        <v>888</v>
+        <v>941</v>
       </c>
       <c s="1" r="B149">
         <v>97.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>889</v>
-      </c>
-      <c t="s" s="2" r="D149">
-        <v>890</v>
+        <v>942</v>
+      </c>
+      <c t="s" s="3" r="D149">
+        <v>943</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>891</v>
-      </c>
-      <c t="s" s="2" r="F149">
-        <v>892</v>
-      </c>
-      <c t="str" r="I149">
+        <v>944</v>
+      </c>
+      <c t="s" s="3" r="F149">
+        <v>945</v>
+      </c>
+      <c s="2" r="H149"/>
+      <c t="str" s="2" r="I149">
         <f t="shared" si="7"/>
         <v>JPL</v>
       </c>
     </row>
-    <row r="150">
+    <row customHeight="1" r="150" ht="15.75">
       <c t="s" s="1" r="A150">
-        <v>893</v>
+        <v>946</v>
       </c>
       <c s="1" r="B150">
         <v>105.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>894</v>
-      </c>
-      <c t="s" s="2" r="D150">
-        <v>895</v>
+        <v>947</v>
+      </c>
+      <c t="s" s="3" r="D150">
+        <v>948</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>896</v>
-      </c>
-      <c t="s" s="2" r="F150">
-        <v>897</v>
+        <v>949</v>
+      </c>
+      <c t="s" s="3" r="F150">
+        <v>950</v>
       </c>
       <c s="1" r="G150">
         <v>49084.0</v>
       </c>
-      <c t="str" r="I150">
+      <c s="2" r="H150"/>
+      <c t="str" s="2" r="I150">
         <f t="shared" si="7"/>
         <v>AMTRAK</v>
       </c>
     </row>
-    <row r="151">
+    <row customHeight="1" r="151" ht="15.75">
       <c t="s" s="1" r="A151">
-        <v>898</v>
+        <v>951</v>
       </c>
       <c s="1" r="B151">
         <v>112.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>899</v>
-      </c>
-      <c t="s" s="2" r="D151">
-        <v>900</v>
+        <v>952</v>
+      </c>
+      <c t="s" s="3" r="D151">
+        <v>953</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>901</v>
-      </c>
-      <c t="s" s="2" r="F151">
-        <v>902</v>
-      </c>
-      <c t="str" r="I151">
+        <v>954</v>
+      </c>
+      <c t="s" s="3" r="F151">
+        <v>955</v>
+      </c>
+      <c s="2" r="H151"/>
+      <c t="str" s="2" r="I151">
         <f t="shared" si="7"/>
         <v>ONHIR</v>
       </c>
     </row>
-    <row r="152">
+    <row customHeight="1" r="152" ht="15.75">
       <c t="s" s="1" r="A152">
-        <v>903</v>
+        <v>956</v>
       </c>
       <c s="1" r="B152">
         <v>121.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>904</v>
-      </c>
-      <c t="s" s="2" r="D152">
-        <v>905</v>
+        <v>957</v>
+      </c>
+      <c t="s" s="3" r="D152">
+        <v>958</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>906</v>
-      </c>
-      <c t="s" s="2" r="F152">
-        <v>907</v>
-      </c>
-      <c t="str" r="I152">
+        <v>959</v>
+      </c>
+      <c t="s" s="3" r="F152">
+        <v>960</v>
+      </c>
+      <c s="2" r="H152"/>
+      <c t="str" s="2" r="I152">
         <f t="shared" si="7"/>
         <v>RATB</v>
       </c>
     </row>
-    <row r="153">
+    <row customHeight="1" r="153" ht="15.75">
       <c t="s" s="1" r="A153">
-        <v>908</v>
+        <v>961</v>
       </c>
       <c s="1" r="B153">
         <v>124.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>909</v>
-      </c>
-      <c t="s" s="2" r="D153">
-        <v>910</v>
+        <v>962</v>
+      </c>
+      <c t="s" s="3" r="D153">
+        <v>963</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>911</v>
-      </c>
-      <c t="s" s="2" r="F153">
-        <v>912</v>
-      </c>
-      <c t="str" r="I153">
+        <v>964</v>
+      </c>
+      <c t="s" s="3" r="F153">
+        <v>965</v>
+      </c>
+      <c s="2" r="H153"/>
+      <c t="str" s="2" r="I153">
         <f t="shared" si="7"/>
         <v>SIGAR</v>
       </c>
     </row>
-    <row r="154">
-      <c t="s" s="3" r="A154">
-        <v>913</v>
-      </c>
-      <c s="3" r="B154">
+    <row customHeight="1" r="154" ht="15.75">
+      <c t="s" s="4" r="A154">
+        <v>966</v>
+      </c>
+      <c s="4" r="B154">
         <v>129.0</v>
       </c>
-      <c t="s" s="3" r="C154">
-        <v>914</v>
-      </c>
-      <c t="s" s="3" r="D154">
-        <v>915</v>
-      </c>
-      <c t="s" s="3" r="E154">
-        <v>916</v>
-      </c>
-      <c t="s" s="4" r="F154">
-        <v>917</v>
-      </c>
-      <c s="3" r="G154">
+      <c t="s" s="4" r="C154">
+        <v>967</v>
+      </c>
+      <c t="s" s="4" r="D154">
+        <v>968</v>
+      </c>
+      <c t="s" s="4" r="E154">
+        <v>969</v>
+      </c>
+      <c t="s" s="5" r="F154">
+        <v>970</v>
+      </c>
+      <c s="4" r="G154">
         <v>49034.0</v>
       </c>
-      <c s="10" r="H154"/>
-      <c t="s" s="3" r="I154">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="155">
+      <c s="4" r="H154"/>
+      <c t="s" s="4" r="I154">
+        <v>971</v>
+      </c>
+    </row>
+    <row customHeight="1" r="155" ht="15.75">
       <c t="s" s="1" r="A155">
-        <v>919</v>
+        <v>972</v>
       </c>
       <c s="1" r="B155">
         <v>132.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>920</v>
-      </c>
-      <c t="s" s="2" r="D155">
-        <v>921</v>
+        <v>973</v>
+      </c>
+      <c t="s" s="3" r="D155">
+        <v>974</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>922</v>
-      </c>
-      <c t="s" s="2" r="F155">
-        <v>923</v>
+        <v>975</v>
+      </c>
+      <c t="s" s="3" r="F155">
+        <v>976</v>
       </c>
       <c s="1" r="G155">
         <v>48126.0</v>
       </c>
-      <c t="str" r="I155">
+      <c s="2" r="H155"/>
+      <c t="str" s="2" r="I155">
         <f ref="I155:I162" t="shared" si="8">iferror(iferror(REGEXEXTRACT(C155,"\((\w+)\)"),REGEXEXTRACT(E155,"\((\w+)\)")),"")</f>
         <v>OCC</v>
       </c>
     </row>
-    <row r="156">
+    <row customHeight="1" r="156" ht="15.75">
       <c t="s" s="1" r="A156">
-        <v>924</v>
+        <v>977</v>
       </c>
       <c s="1" r="B156">
         <v>133.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>925</v>
-      </c>
-      <c t="s" s="2" r="D156">
-        <v>926</v>
+        <v>978</v>
+      </c>
+      <c t="s" s="3" r="D156">
+        <v>979</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>927</v>
-      </c>
-      <c t="s" s="2" r="F156">
-        <v>928</v>
-      </c>
-      <c t="str" r="I156">
+        <v>980</v>
+      </c>
+      <c t="s" s="3" r="F156">
+        <v>981</v>
+      </c>
+      <c s="2" r="H156"/>
+      <c t="str" s="2" r="I156">
         <f t="shared" si="8"/>
         <v>FINCEN</v>
       </c>
     </row>
-    <row r="157">
+    <row customHeight="1" r="157" ht="15.75">
       <c t="s" s="1" r="A157">
-        <v>929</v>
+        <v>982</v>
       </c>
       <c s="1" r="B157">
         <v>141.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>930</v>
-      </c>
-      <c t="s" s="2" r="D157">
-        <v>931</v>
+        <v>983</v>
+      </c>
+      <c t="s" s="3" r="D157">
+        <v>984</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>932</v>
+        <v>985</v>
       </c>
       <c t="s" s="13" r="F157">
-        <v>933</v>
+        <v>986</v>
       </c>
       <c s="1" r="G157">
         <v>52693.0</v>
       </c>
-      <c t="str" r="I157">
+      <c s="2" r="H157"/>
+      <c t="str" s="2" r="I157">
         <f t="shared" si="8"/>
         <v>DOLETA</v>
       </c>
     </row>
-    <row r="158">
+    <row customHeight="1" r="158" ht="15.75">
       <c t="s" s="1" r="A158">
-        <v>934</v>
+        <v>987</v>
       </c>
       <c s="1" r="B158">
         <v>142.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>935</v>
-      </c>
-      <c t="s" s="2" r="D158">
-        <v>936</v>
+        <v>988</v>
+      </c>
+      <c t="s" s="3" r="D158">
+        <v>989</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>937</v>
+        <v>990</v>
       </c>
       <c t="s" s="13" r="F158">
-        <v>938</v>
+        <v>991</v>
       </c>
       <c s="1" r="G158">
         <v>49462.0</v>
       </c>
-      <c t="str" r="I158">
+      <c s="2" r="H158"/>
+      <c t="str" s="2" r="I158">
         <f t="shared" si="8"/>
         <v>MSHA</v>
       </c>
     </row>
-    <row r="159">
+    <row customHeight="1" r="159" ht="15.75">
       <c t="s" s="1" r="A159">
-        <v>939</v>
+        <v>992</v>
       </c>
       <c s="1" r="B159">
         <v>149.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>940</v>
-      </c>
-      <c t="s" s="2" r="D159">
-        <v>941</v>
+        <v>993</v>
+      </c>
+      <c t="s" s="3" r="D159">
+        <v>994</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>942</v>
-      </c>
-      <c t="s" s="2" r="F159">
-        <v>943</v>
-      </c>
-      <c t="str" r="I159">
+        <v>995</v>
+      </c>
+      <c t="s" s="3" r="F159">
+        <v>996</v>
+      </c>
+      <c s="2" r="H159"/>
+      <c t="str" s="2" r="I159">
         <f t="shared" si="8"/>
         <v>IBWC</v>
       </c>
     </row>
-    <row r="160">
+    <row customHeight="1" r="160" ht="15.75">
       <c t="s" s="1" r="A160">
-        <v>944</v>
+        <v>997</v>
       </c>
       <c s="1" r="B160">
         <v>150.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>945</v>
-      </c>
-      <c t="s" s="2" r="D160">
-        <v>946</v>
+        <v>998</v>
+      </c>
+      <c t="s" s="3" r="D160">
+        <v>999</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>947</v>
-      </c>
-      <c t="s" s="2" r="F160">
-        <v>948</v>
+        <v>1000</v>
+      </c>
+      <c t="s" s="3" r="F160">
+        <v>1001</v>
       </c>
       <c s="1" r="G160">
         <v>49712.0</v>
       </c>
-      <c t="str" r="I160">
+      <c s="2" r="H160"/>
+      <c t="str" s="2" r="I160">
         <f t="shared" si="8"/>
         <v>USITC</v>
       </c>
     </row>
-    <row r="161">
+    <row customHeight="1" r="161" ht="15.75">
       <c t="s" s="1" r="A161">
-        <v>949</v>
+        <v>1002</v>
       </c>
       <c s="1" r="B161">
         <v>153.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>950</v>
-      </c>
-      <c t="s" s="2" r="D161">
-        <v>951</v>
+        <v>1003</v>
+      </c>
+      <c t="s" s="3" r="D161">
+        <v>1004</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>952</v>
-      </c>
-      <c t="s" s="2" r="F161">
-        <v>953</v>
+        <v>1005</v>
+      </c>
+      <c t="s" s="3" r="F161">
+        <v>1006</v>
       </c>
       <c s="1" r="G161"/>
-      <c t="str" r="I161">
+      <c s="2" r="H161"/>
+      <c t="str" s="2" r="I161">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="162">
+    <row customHeight="1" r="162" ht="15.75">
       <c t="s" s="1" r="A162">
-        <v>954</v>
+        <v>1007</v>
       </c>
       <c s="1" r="B162">
         <v>154.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>955</v>
-      </c>
-      <c t="s" s="2" r="D162">
-        <v>956</v>
+        <v>1008</v>
+      </c>
+      <c t="s" s="3" r="D162">
+        <v>1009</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>957</v>
+        <v>1010</v>
       </c>
       <c t="s" s="13" r="F162">
-        <v>958</v>
+        <v>1011</v>
       </c>
       <c s="1" r="G162">
         <v>49721.0</v>
       </c>
-      <c t="str" r="I162">
+      <c s="2" r="H162"/>
+      <c t="str" s="2" r="I162">
         <f t="shared" si="8"/>
         <v>USTDA</v>
       </c>
     </row>
-    <row r="163">
-      <c t="s" s="3" r="A163">
-        <v>959</v>
-      </c>
-      <c s="3" r="B163">
+    <row customHeight="1" r="163" ht="15.75">
+      <c t="s" s="4" r="A163">
+        <v>1012</v>
+      </c>
+      <c s="4" r="B163">
         <v>155.0</v>
       </c>
-      <c t="s" s="3" r="C163">
-        <v>960</v>
-      </c>
-      <c t="s" s="4" r="D163">
-        <v>961</v>
-      </c>
-      <c t="s" s="3" r="E163">
-        <v>962</v>
+      <c t="s" s="4" r="C163">
+        <v>1013</v>
+      </c>
+      <c t="s" s="5" r="D163">
+        <v>1014</v>
+      </c>
+      <c t="s" s="4" r="E163">
+        <v>1015</v>
       </c>
       <c t="s" s="14" r="F163">
-        <v>963</v>
-      </c>
-      <c s="3" r="G163">
+        <v>1016</v>
+      </c>
+      <c s="4" r="G163">
         <v>49724.0</v>
       </c>
-      <c s="10" r="H163"/>
-      <c t="s" s="3" r="I163">
-        <v>964</v>
-      </c>
+      <c s="4" r="H163"/>
+      <c t="s" s="4" r="I163">
+        <v>1017</v>
+      </c>
+    </row>
+    <row customHeight="1" r="164" ht="15.75">
+      <c s="1" r="A164"/>
+      <c s="1" r="B164"/>
+      <c t="s" s="15" r="C164">
+        <v>1018</v>
+      </c>
+      <c s="3" r="D164"/>
+      <c s="1" r="E164"/>
+      <c s="16" r="F164"/>
+      <c s="17" r="G164">
+        <v>49080.0</v>
+      </c>
+      <c s="1" r="H164"/>
+      <c s="1" r="I164"/>
+    </row>
+    <row customHeight="1" r="165" ht="15.75">
+      <c s="1" r="A165"/>
+      <c s="1" r="B165"/>
+      <c t="s" s="15" r="C165">
+        <v>1019</v>
+      </c>
+      <c s="3" r="D165"/>
+      <c s="1" r="E165"/>
+      <c s="16" r="F165"/>
+      <c s="17" r="G165">
+        <v>49096.0</v>
+      </c>
+      <c s="1" r="H165"/>
+      <c s="1" r="I165"/>
+    </row>
+    <row customHeight="1" r="166" ht="15.75">
+      <c s="1" r="A166"/>
+      <c s="1" r="B166"/>
+      <c t="s" s="15" r="C166">
+        <v>1020</v>
+      </c>
+      <c s="3" r="D166"/>
+      <c s="1" r="E166"/>
+      <c s="16" r="F166"/>
+      <c s="17" r="G166">
+        <v>49561.0</v>
+      </c>
+      <c s="1" r="H166"/>
+      <c s="1" r="I166"/>
+    </row>
+    <row customHeight="1" r="167" ht="15.75">
+      <c s="1" r="A167"/>
+      <c s="1" r="B167"/>
+      <c t="s" s="15" r="C167">
+        <v>1021</v>
+      </c>
+      <c s="3" r="D167"/>
+      <c s="1" r="E167"/>
+      <c s="16" r="F167"/>
+      <c s="17" r="G167">
+        <v>48068.0</v>
+      </c>
+      <c s="1" r="H167"/>
+      <c s="1" r="I167"/>
+    </row>
+    <row customHeight="1" r="168" ht="15.75">
+      <c s="1" r="A168"/>
+      <c s="1" r="B168"/>
+      <c t="s" s="15" r="C168">
+        <v>1022</v>
+      </c>
+      <c s="3" r="D168"/>
+      <c s="1" r="E168"/>
+      <c s="16" r="F168"/>
+      <c s="17" r="G168">
+        <v>48069.0</v>
+      </c>
+      <c s="1" r="H168"/>
+      <c s="1" r="I168"/>
+    </row>
+    <row customHeight="1" r="169" ht="15.75">
+      <c s="1" r="A169"/>
+      <c s="1" r="B169"/>
+      <c t="s" s="15" r="C169">
+        <v>1023</v>
+      </c>
+      <c s="3" r="D169"/>
+      <c s="1" r="E169"/>
+      <c s="16" r="F169"/>
+      <c s="17" r="G169">
+        <v>49444.0</v>
+      </c>
+      <c s="1" r="H169"/>
+      <c s="1" r="I169"/>
+    </row>
+    <row customHeight="1" r="170" ht="15.75">
+      <c s="1" r="A170"/>
+      <c s="1" r="B170"/>
+      <c t="s" s="15" r="C170">
+        <v>1024</v>
+      </c>
+      <c s="3" r="D170"/>
+      <c s="1" r="E170"/>
+      <c s="16" r="F170"/>
+      <c s="17" r="G170">
+        <v>49504.0</v>
+      </c>
+      <c s="1" r="H170"/>
+      <c s="1" r="I170"/>
+    </row>
+    <row customHeight="1" r="171" ht="15.75">
+      <c s="1" r="A171"/>
+      <c s="1" r="B171"/>
+      <c t="s" s="15" r="C171">
+        <v>1025</v>
+      </c>
+      <c s="3" r="D171"/>
+      <c s="1" r="E171"/>
+      <c s="16" r="F171"/>
+      <c s="17" r="G171">
+        <v>48143.0</v>
+      </c>
+      <c s="1" r="H171"/>
+      <c s="1" r="I171"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8508,274 +8967,4 @@
   <drawing r:id="rId439"/>
   <legacyDrawing r:id="rId440"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="3" customWidth="1" max="3" width="39.86"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
-        <v>965</v>
-      </c>
-      <c t="s" s="1" r="B1">
-        <v>966</v>
-      </c>
-      <c t="s" s="1" r="C1">
-        <v>967</v>
-      </c>
-      <c t="s" s="1" r="D1">
-        <v>968</v>
-      </c>
-      <c t="s" s="1" r="E1">
-        <v>969</v>
-      </c>
-      <c t="s" s="1" r="F1">
-        <v>970</v>
-      </c>
-      <c t="s" s="1" r="G1">
-        <v>971</v>
-      </c>
-      <c s="15" r="H1"/>
-    </row>
-    <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>972</v>
-      </c>
-      <c t="s" s="2" r="B2">
-        <v>973</v>
-      </c>
-      <c t="s" s="1" r="C2">
-        <v>974</v>
-      </c>
-      <c t="s" s="2" r="D2">
-        <v>975</v>
-      </c>
-      <c t="s" s="1" r="E2">
-        <v>976</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>977</v>
-      </c>
-      <c t="str" r="G2">
-        <f ref="G2:G12" t="shared" si="1">iferror(iferror(REGEXEXTRACT(A2,"\((\w+)\)"),REGEXEXTRACT(C2,"\((\w+)\)")),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="1" r="A3">
-        <v>978</v>
-      </c>
-      <c t="s" s="2" r="B3">
-        <v>979</v>
-      </c>
-      <c t="s" s="1" r="C3">
-        <v>980</v>
-      </c>
-      <c t="s" s="2" r="D3">
-        <v>981</v>
-      </c>
-      <c t="str" r="G3">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="1" r="A4">
-        <v>982</v>
-      </c>
-      <c t="s" s="2" r="B4">
-        <v>983</v>
-      </c>
-      <c t="s" s="1" r="C4">
-        <v>984</v>
-      </c>
-      <c t="s" s="2" r="D4">
-        <v>985</v>
-      </c>
-      <c t="str" r="G4">
-        <f t="shared" si="1"/>
-        <v>FOMC</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="1" r="A5">
-        <v>986</v>
-      </c>
-      <c t="s" s="2" r="B5">
-        <v>987</v>
-      </c>
-      <c t="s" s="1" r="C5">
-        <v>988</v>
-      </c>
-      <c t="s" s="2" r="D5">
-        <v>989</v>
-      </c>
-      <c t="str" r="G5">
-        <f t="shared" si="1"/>
-        <v>ACL</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="1" r="A6">
-        <v>990</v>
-      </c>
-      <c t="s" s="2" r="B6">
-        <v>991</v>
-      </c>
-      <c t="s" s="1" r="C6">
-        <v>992</v>
-      </c>
-      <c t="s" s="2" r="D6">
-        <v>993</v>
-      </c>
-      <c t="str" r="G6">
-        <f t="shared" si="1"/>
-        <v>JPL</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="1" r="A7">
-        <v>994</v>
-      </c>
-      <c t="s" s="2" r="B7">
-        <v>995</v>
-      </c>
-      <c t="s" s="1" r="C7">
-        <v>996</v>
-      </c>
-      <c t="s" s="2" r="D7">
-        <v>997</v>
-      </c>
-      <c t="str" r="G7">
-        <f t="shared" si="1"/>
-        <v>ONHIR</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="1" r="A8">
-        <v>998</v>
-      </c>
-      <c t="s" s="2" r="B8">
-        <v>999</v>
-      </c>
-      <c t="s" s="1" r="C8">
-        <v>1000</v>
-      </c>
-      <c t="s" s="2" r="D8">
-        <v>1001</v>
-      </c>
-      <c t="str" r="G8">
-        <f t="shared" si="1"/>
-        <v>RATB</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="1" r="A9">
-        <v>1002</v>
-      </c>
-      <c t="s" s="2" r="B9">
-        <v>1003</v>
-      </c>
-      <c t="s" s="1" r="C9">
-        <v>1004</v>
-      </c>
-      <c t="s" s="2" r="D9">
-        <v>1005</v>
-      </c>
-      <c t="str" r="G9">
-        <f t="shared" si="1"/>
-        <v>SIGAR</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="1" r="A10">
-        <v>1006</v>
-      </c>
-      <c t="s" s="2" r="B10">
-        <v>1007</v>
-      </c>
-      <c t="s" s="1" r="C10">
-        <v>1008</v>
-      </c>
-      <c t="s" s="2" r="D10">
-        <v>1009</v>
-      </c>
-      <c t="str" r="G10">
-        <f t="shared" si="1"/>
-        <v>FINCEN</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="1" r="A11">
-        <v>1010</v>
-      </c>
-      <c t="s" s="2" r="B11">
-        <v>1011</v>
-      </c>
-      <c t="s" s="1" r="C11">
-        <v>1012</v>
-      </c>
-      <c t="s" s="2" r="D11">
-        <v>1013</v>
-      </c>
-      <c t="str" r="G11">
-        <f t="shared" si="1"/>
-        <v>IBWC</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="s" s="1" r="A12">
-        <v>1014</v>
-      </c>
-      <c t="s" s="2" r="B12">
-        <v>1015</v>
-      </c>
-      <c t="s" s="1" r="C12">
-        <v>1016</v>
-      </c>
-      <c t="s" s="2" r="D12">
-        <v>1017</v>
-      </c>
-      <c s="1" r="E12"/>
-      <c t="str" r="G12">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="$H$1:$H$988"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="D4" r:id="rId7"/>
-    <hyperlink ref="B5" r:id="rId8"/>
-    <hyperlink ref="D5" r:id="rId9"/>
-    <hyperlink ref="B6" r:id="rId10"/>
-    <hyperlink ref="D6" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
-    <hyperlink ref="D7" r:id="rId13"/>
-    <hyperlink ref="B8" r:id="rId14"/>
-    <hyperlink ref="D8" r:id="rId15"/>
-    <hyperlink ref="B9" r:id="rId16"/>
-    <hyperlink ref="D9" r:id="rId17"/>
-    <hyperlink ref="B10" r:id="rId18"/>
-    <hyperlink ref="D10" r:id="rId19"/>
-    <hyperlink ref="B11" r:id="rId20"/>
-    <hyperlink ref="D11" r:id="rId21"/>
-    <hyperlink ref="B12" r:id="rId22"/>
-    <hyperlink ref="D12" r:id="rId23"/>
-  </hyperlinks>
-  <drawing r:id="rId24"/>
-  <legacyDrawing r:id="rId25"/>
-</worksheet>
 </file>